--- a/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2739358436831338</v>
+        <v>0.2739358436829065</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3274655688926202</v>
+        <v>0.327465568892606</v>
       </c>
       <c r="E2">
-        <v>0.0308554022791615</v>
+        <v>0.03085540227923145</v>
       </c>
       <c r="F2">
-        <v>6.996361418517466</v>
+        <v>6.99636141851758</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.599701756364567</v>
+        <v>4.599701756364595</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.97445418692844</v>
+        <v>2.974454186928469</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2383789649147872</v>
+        <v>0.2383789649149008</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2758696260040523</v>
+        <v>0.2758696260042797</v>
       </c>
       <c r="E3">
-        <v>0.0299632364798631</v>
+        <v>0.02996323647991261</v>
       </c>
       <c r="F3">
-        <v>5.917794489306857</v>
+        <v>5.9177944893068</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.902552922051854</v>
+        <v>3.902552922051797</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.518766358615011</v>
+        <v>2.518766358614982</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2169163341083333</v>
+        <v>0.2169163341082054</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2466198317291486</v>
+        <v>0.2466198317291344</v>
       </c>
       <c r="E4">
-        <v>0.02951110475320606</v>
+        <v>0.02951110475328633</v>
       </c>
       <c r="F4">
-        <v>5.298002885325644</v>
+        <v>5.298002885325701</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.251429413199602</v>
+        <v>2.251429413199631</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2082487740763668</v>
+        <v>0.2082487740762957</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2351917004678654</v>
+        <v>0.2351917004674533</v>
       </c>
       <c r="E5">
-        <v>0.02934531394650297</v>
+        <v>0.02934531394651563</v>
       </c>
       <c r="F5">
-        <v>5.054029347041592</v>
+        <v>5.054029347041535</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.329133484659906</v>
+        <v>3.329133484659877</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.144969313478398</v>
+        <v>2.14496931347837</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2068139063426315</v>
+        <v>0.2068139063425321</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2333207319294672</v>
+        <v>0.2333207319297088</v>
       </c>
       <c r="E6">
-        <v>0.02931876463650951</v>
+        <v>0.02931876463649674</v>
       </c>
       <c r="F6">
-        <v>5.013984433380102</v>
+        <v>5.013984433380074</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3.302179637302629</v>
+        <v>3.302179637302615</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.1274251513438</v>
+        <v>2.127425151343829</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2167991392056052</v>
+        <v>0.2167991392055626</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2464638576314115</v>
+        <v>0.2464638576315963</v>
       </c>
       <c r="E7">
-        <v>0.02950880037254944</v>
+        <v>0.02950880037251458</v>
       </c>
       <c r="F7">
-        <v>5.294680190780127</v>
+        <v>5.29468019078007</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.490392816219185</v>
+        <v>3.490392816219213</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.249984365489382</v>
+        <v>2.249984365489411</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2615897986123343</v>
+        <v>0.2615897986122349</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3090896267246848</v>
+        <v>0.3090896267245</v>
       </c>
       <c r="E8">
-        <v>0.03052399722051347</v>
+        <v>0.03052399722049592</v>
       </c>
       <c r="F8">
         <v>6.614253234446863</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.814307280887363</v>
+        <v>2.814307280887348</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3531633192094432</v>
+        <v>0.3531633192093295</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.458626710352263</v>
+        <v>0.458626710352064</v>
       </c>
       <c r="E9">
-        <v>0.03365708969275927</v>
+        <v>0.03365708969272641</v>
       </c>
       <c r="F9">
-        <v>9.667148303495821</v>
+        <v>9.66714830349585</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.254480043183293</v>
+        <v>6.254480043183264</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.059887853561889</v>
+        <v>4.059887853561833</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4242637403790184</v>
+        <v>0.42426374037899</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6009263736685568</v>
+        <v>0.6009263736687842</v>
       </c>
       <c r="E10">
-        <v>0.03759248505260127</v>
+        <v>0.03759248505260837</v>
       </c>
       <c r="F10">
         <v>12.46939059659093</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.905239924569486</v>
+        <v>7.905239924569457</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.145458694468786</v>
+        <v>5.145458694468758</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4580015021401209</v>
+        <v>0.458001502140263</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6796538190650665</v>
+        <v>0.6796538190650097</v>
       </c>
       <c r="E11">
-        <v>0.04020088482781015</v>
+        <v>0.04020088482782924</v>
       </c>
       <c r="F11">
-        <v>13.98286319106279</v>
+        <v>13.9828631910629</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.767369560034183</v>
+        <v>8.767369560034211</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.712524644278659</v>
+        <v>5.712524644278673</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4710584001795581</v>
+        <v>0.4710584001795155</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7126165596900478</v>
+        <v>0.7126165596900762</v>
       </c>
       <c r="E12">
-        <v>0.04139051585371645</v>
+        <v>0.0413905158536032</v>
       </c>
       <c r="F12">
-        <v>14.60931141447162</v>
+        <v>14.60931141447151</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.943622004877483</v>
+        <v>5.94362200487744</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4682320098114729</v>
+        <v>0.4682320098114303</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7053494777401283</v>
+        <v>0.7053494777406399</v>
       </c>
       <c r="E13">
-        <v>0.04112315047224824</v>
+        <v>0.04112315047229842</v>
       </c>
       <c r="F13">
-        <v>14.47156022906591</v>
+        <v>14.47156022906574</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.89298192660263</v>
+        <v>5.892981926602673</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4590694231750945</v>
+        <v>0.4590694231750803</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6822929173852401</v>
+        <v>0.6822929173858654</v>
       </c>
       <c r="E14">
-        <v>0.0402939614367086</v>
+        <v>0.04029396143674857</v>
       </c>
       <c r="F14">
-        <v>14.03317269710283</v>
+        <v>14.03317269710294</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.795710988644799</v>
+        <v>8.795710988644771</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.731160315182279</v>
+        <v>5.731160315182294</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4534969156867987</v>
+        <v>0.4534969156868129</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6686284179772031</v>
+        <v>0.6686284179774873</v>
       </c>
       <c r="E15">
-        <v>0.03981606850410868</v>
+        <v>0.03981606850416908</v>
       </c>
       <c r="F15">
-        <v>13.77239126957926</v>
+        <v>13.77239126957915</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.648587782577749</v>
+        <v>8.648587782577692</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4220928490037608</v>
+        <v>0.4220928490037323</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5961433274701733</v>
+        <v>0.5961433274700028</v>
       </c>
       <c r="E16">
-        <v>0.03744425426175901</v>
+        <v>0.0374442542616702</v>
       </c>
       <c r="F16">
-        <v>12.37663121922373</v>
+        <v>12.37663121922367</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.851776590335902</v>
+        <v>7.851776590335845</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.110287064702021</v>
+        <v>5.110287064701993</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.403229234412791</v>
+        <v>0.4032292344127058</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5558567385616016</v>
+        <v>0.5558567385618289</v>
       </c>
       <c r="E17">
-        <v>0.03624079143561687</v>
+        <v>0.03624079143565151</v>
       </c>
       <c r="F17">
-        <v>11.59152390091069</v>
+        <v>11.59152390091066</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.396202446873559</v>
+        <v>7.396202446873502</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3925041299290797</v>
+        <v>0.3925041299289944</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5339079683774344</v>
+        <v>0.5339079683776049</v>
       </c>
       <c r="E18">
-        <v>0.03561846300888449</v>
+        <v>0.03561846300888627</v>
       </c>
       <c r="F18">
         <v>11.16085070152894</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.143884862915883</v>
+        <v>7.143884862915854</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.38889241805974</v>
+        <v>0.3888924180595836</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,10 +1067,10 @@
         <v>0.5266629574855983</v>
       </c>
       <c r="E19">
-        <v>0.03541811723170341</v>
+        <v>0.03541811723179489</v>
       </c>
       <c r="F19">
-        <v>11.01822539119138</v>
+        <v>11.01822539119149</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.5894067948133</v>
+        <v>4.589406794813314</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4052239398401554</v>
+        <v>0.4052239398401269</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5600128144527616</v>
+        <v>0.5600128144528469</v>
       </c>
       <c r="E20">
-        <v>0.03636125606643592</v>
+        <v>0.0363612560663662</v>
       </c>
       <c r="F20">
-        <v>11.67283742795928</v>
+        <v>11.67283742795908</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.443646105740839</v>
+        <v>7.443646105740783</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.841797093337505</v>
+        <v>4.841797093337519</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4617521714052657</v>
+        <v>0.4617521714054078</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6889662859881014</v>
+        <v>0.688966285988414</v>
       </c>
       <c r="E21">
-        <v>0.04053099271296468</v>
+        <v>0.04053099271297</v>
       </c>
       <c r="F21">
-        <v>14.16026773077959</v>
+        <v>14.16026773077954</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.867221661913504</v>
+        <v>8.867221661913533</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.778179077368279</v>
+        <v>5.778179077368293</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.500420918169894</v>
+        <v>0.5004209181697661</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7929797165311356</v>
+        <v>0.7929797165309367</v>
       </c>
       <c r="E22">
-        <v>0.04454600669881259</v>
+        <v>0.04454600669879261</v>
       </c>
       <c r="F22">
-        <v>16.11945241467174</v>
+        <v>16.11945241467157</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.954481153152244</v>
+        <v>9.954481153152216</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.492433274602718</v>
+        <v>6.492433274602703</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4795819596071738</v>
+        <v>0.4795819596071027</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7349996426740688</v>
+        <v>0.7349996426739267</v>
       </c>
       <c r="E23">
-        <v>0.04223242649012926</v>
+        <v>0.04223242649001735</v>
       </c>
       <c r="F23">
-        <v>15.03233742513788</v>
+        <v>15.03233742513783</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.354603781999003</v>
+        <v>9.354603781998946</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4043217655245996</v>
+        <v>0.4043217655246991</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0.5581301475259579</v>
       </c>
       <c r="E24">
-        <v>0.03630658247912733</v>
+        <v>0.03630658247916241</v>
       </c>
       <c r="F24">
-        <v>11.63601232236238</v>
+        <v>11.63601232236246</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.827668040854206</v>
+        <v>4.827668040854235</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3278583547907772</v>
+        <v>0.3278583547909619</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4140368348031132</v>
+        <v>0.4140368348033405</v>
       </c>
       <c r="E25">
-        <v>0.03261830436741708</v>
+        <v>0.0326183043674344</v>
       </c>
       <c r="F25">
-        <v>8.769555384825139</v>
+        <v>8.769555384825196</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.708370677898728</v>
+        <v>5.708370677898756</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.701218394324471</v>
+        <v>3.701218394324485</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2739358436829065</v>
+        <v>0.2739358436831338</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.327465568892606</v>
+        <v>0.3274655688926202</v>
       </c>
       <c r="E2">
-        <v>0.03085540227923145</v>
+        <v>0.0308554022791615</v>
       </c>
       <c r="F2">
-        <v>6.99636141851758</v>
+        <v>6.996361418517466</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.599701756364595</v>
+        <v>4.599701756364567</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.974454186928469</v>
+        <v>2.97445418692844</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2383789649149008</v>
+        <v>0.2383789649147872</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2758696260042797</v>
+        <v>0.2758696260040523</v>
       </c>
       <c r="E3">
-        <v>0.02996323647991261</v>
+        <v>0.0299632364798631</v>
       </c>
       <c r="F3">
-        <v>5.9177944893068</v>
+        <v>5.917794489306857</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.902552922051797</v>
+        <v>3.902552922051854</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.518766358614982</v>
+        <v>2.518766358615011</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2169163341082054</v>
+        <v>0.2169163341083333</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2466198317291344</v>
+        <v>0.2466198317291486</v>
       </c>
       <c r="E4">
-        <v>0.02951110475328633</v>
+        <v>0.02951110475320606</v>
       </c>
       <c r="F4">
-        <v>5.298002885325701</v>
+        <v>5.298002885325644</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.251429413199631</v>
+        <v>2.251429413199602</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2082487740762957</v>
+        <v>0.2082487740763668</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2351917004674533</v>
+        <v>0.2351917004678654</v>
       </c>
       <c r="E5">
-        <v>0.02934531394651563</v>
+        <v>0.02934531394650297</v>
       </c>
       <c r="F5">
-        <v>5.054029347041535</v>
+        <v>5.054029347041592</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.329133484659877</v>
+        <v>3.329133484659906</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.14496931347837</v>
+        <v>2.144969313478398</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2068139063425321</v>
+        <v>0.2068139063426315</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2333207319297088</v>
+        <v>0.2333207319294672</v>
       </c>
       <c r="E6">
-        <v>0.02931876463649674</v>
+        <v>0.02931876463650951</v>
       </c>
       <c r="F6">
-        <v>5.013984433380074</v>
+        <v>5.013984433380102</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3.302179637302615</v>
+        <v>3.302179637302629</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.127425151343829</v>
+        <v>2.1274251513438</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2167991392055626</v>
+        <v>0.2167991392056052</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2464638576315963</v>
+        <v>0.2464638576314115</v>
       </c>
       <c r="E7">
-        <v>0.02950880037251458</v>
+        <v>0.02950880037254944</v>
       </c>
       <c r="F7">
-        <v>5.29468019078007</v>
+        <v>5.294680190780127</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.490392816219213</v>
+        <v>3.490392816219185</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.249984365489411</v>
+        <v>2.249984365489382</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2615897986122349</v>
+        <v>0.2615897986123343</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3090896267245</v>
+        <v>0.3090896267246848</v>
       </c>
       <c r="E8">
-        <v>0.03052399722049592</v>
+        <v>0.03052399722051347</v>
       </c>
       <c r="F8">
         <v>6.614253234446863</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.814307280887348</v>
+        <v>2.814307280887363</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3531633192093295</v>
+        <v>0.3531633192094432</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.458626710352064</v>
+        <v>0.458626710352263</v>
       </c>
       <c r="E9">
-        <v>0.03365708969272641</v>
+        <v>0.03365708969275927</v>
       </c>
       <c r="F9">
-        <v>9.66714830349585</v>
+        <v>9.667148303495821</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.254480043183264</v>
+        <v>6.254480043183293</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>4.059887853561833</v>
+        <v>4.059887853561889</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.42426374037899</v>
+        <v>0.4242637403790184</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6009263736687842</v>
+        <v>0.6009263736685568</v>
       </c>
       <c r="E10">
-        <v>0.03759248505260837</v>
+        <v>0.03759248505260127</v>
       </c>
       <c r="F10">
         <v>12.46939059659093</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.905239924569457</v>
+        <v>7.905239924569486</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.145458694468758</v>
+        <v>5.145458694468786</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.458001502140263</v>
+        <v>0.4580015021401209</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6796538190650097</v>
+        <v>0.6796538190650665</v>
       </c>
       <c r="E11">
-        <v>0.04020088482782924</v>
+        <v>0.04020088482781015</v>
       </c>
       <c r="F11">
-        <v>13.9828631910629</v>
+        <v>13.98286319106279</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.767369560034211</v>
+        <v>8.767369560034183</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.712524644278673</v>
+        <v>5.712524644278659</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4710584001795155</v>
+        <v>0.4710584001795581</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7126165596900762</v>
+        <v>0.7126165596900478</v>
       </c>
       <c r="E12">
-        <v>0.0413905158536032</v>
+        <v>0.04139051585371645</v>
       </c>
       <c r="F12">
-        <v>14.60931141447151</v>
+        <v>14.60931141447162</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.94362200487744</v>
+        <v>5.943622004877483</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4682320098114303</v>
+        <v>0.4682320098114729</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7053494777406399</v>
+        <v>0.7053494777401283</v>
       </c>
       <c r="E13">
-        <v>0.04112315047229842</v>
+        <v>0.04112315047224824</v>
       </c>
       <c r="F13">
-        <v>14.47156022906574</v>
+        <v>14.47156022906591</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.892981926602673</v>
+        <v>5.89298192660263</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4590694231750803</v>
+        <v>0.4590694231750945</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6822929173858654</v>
+        <v>0.6822929173852401</v>
       </c>
       <c r="E14">
-        <v>0.04029396143674857</v>
+        <v>0.0402939614367086</v>
       </c>
       <c r="F14">
-        <v>14.03317269710294</v>
+        <v>14.03317269710283</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.795710988644771</v>
+        <v>8.795710988644799</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.731160315182294</v>
+        <v>5.731160315182279</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4534969156868129</v>
+        <v>0.4534969156867987</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6686284179774873</v>
+        <v>0.6686284179772031</v>
       </c>
       <c r="E15">
-        <v>0.03981606850416908</v>
+        <v>0.03981606850410868</v>
       </c>
       <c r="F15">
-        <v>13.77239126957915</v>
+        <v>13.77239126957926</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.648587782577692</v>
+        <v>8.648587782577749</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4220928490037323</v>
+        <v>0.4220928490037608</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5961433274700028</v>
+        <v>0.5961433274701733</v>
       </c>
       <c r="E16">
-        <v>0.0374442542616702</v>
+        <v>0.03744425426175901</v>
       </c>
       <c r="F16">
-        <v>12.37663121922367</v>
+        <v>12.37663121922373</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.851776590335845</v>
+        <v>7.851776590335902</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.110287064701993</v>
+        <v>5.110287064702021</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4032292344127058</v>
+        <v>0.403229234412791</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5558567385618289</v>
+        <v>0.5558567385616016</v>
       </c>
       <c r="E17">
-        <v>0.03624079143565151</v>
+        <v>0.03624079143561687</v>
       </c>
       <c r="F17">
-        <v>11.59152390091066</v>
+        <v>11.59152390091069</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.396202446873502</v>
+        <v>7.396202446873559</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3925041299289944</v>
+        <v>0.3925041299290797</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5339079683776049</v>
+        <v>0.5339079683774344</v>
       </c>
       <c r="E18">
-        <v>0.03561846300888627</v>
+        <v>0.03561846300888449</v>
       </c>
       <c r="F18">
         <v>11.16085070152894</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.143884862915854</v>
+        <v>7.143884862915883</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3888924180595836</v>
+        <v>0.38889241805974</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,10 +1067,10 @@
         <v>0.5266629574855983</v>
       </c>
       <c r="E19">
-        <v>0.03541811723179489</v>
+        <v>0.03541811723170341</v>
       </c>
       <c r="F19">
-        <v>11.01822539119149</v>
+        <v>11.01822539119138</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.589406794813314</v>
+        <v>4.5894067948133</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4052239398401269</v>
+        <v>0.4052239398401554</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5600128144528469</v>
+        <v>0.5600128144527616</v>
       </c>
       <c r="E20">
-        <v>0.0363612560663662</v>
+        <v>0.03636125606643592</v>
       </c>
       <c r="F20">
-        <v>11.67283742795908</v>
+        <v>11.67283742795928</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.443646105740783</v>
+        <v>7.443646105740839</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.841797093337519</v>
+        <v>4.841797093337505</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4617521714054078</v>
+        <v>0.4617521714052657</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.688966285988414</v>
+        <v>0.6889662859881014</v>
       </c>
       <c r="E21">
-        <v>0.04053099271297</v>
+        <v>0.04053099271296468</v>
       </c>
       <c r="F21">
-        <v>14.16026773077954</v>
+        <v>14.16026773077959</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.867221661913533</v>
+        <v>8.867221661913504</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.778179077368293</v>
+        <v>5.778179077368279</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5004209181697661</v>
+        <v>0.500420918169894</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7929797165309367</v>
+        <v>0.7929797165311356</v>
       </c>
       <c r="E22">
-        <v>0.04454600669879261</v>
+        <v>0.04454600669881259</v>
       </c>
       <c r="F22">
-        <v>16.11945241467157</v>
+        <v>16.11945241467174</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.954481153152216</v>
+        <v>9.954481153152244</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.492433274602703</v>
+        <v>6.492433274602718</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4795819596071027</v>
+        <v>0.4795819596071738</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7349996426739267</v>
+        <v>0.7349996426740688</v>
       </c>
       <c r="E23">
-        <v>0.04223242649001735</v>
+        <v>0.04223242649012926</v>
       </c>
       <c r="F23">
-        <v>15.03233742513783</v>
+        <v>15.03233742513788</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.354603781998946</v>
+        <v>9.354603781999003</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4043217655246991</v>
+        <v>0.4043217655245996</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0.5581301475259579</v>
       </c>
       <c r="E24">
-        <v>0.03630658247916241</v>
+        <v>0.03630658247912733</v>
       </c>
       <c r="F24">
-        <v>11.63601232236246</v>
+        <v>11.63601232236238</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>4.827668040854235</v>
+        <v>4.827668040854206</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3278583547909619</v>
+        <v>0.3278583547907772</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4140368348033405</v>
+        <v>0.4140368348031132</v>
       </c>
       <c r="E25">
-        <v>0.0326183043674344</v>
+        <v>0.03261830436741708</v>
       </c>
       <c r="F25">
-        <v>8.769555384825196</v>
+        <v>8.769555384825139</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.708370677898756</v>
+        <v>5.708370677898728</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.701218394324485</v>
+        <v>3.701218394324471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2739358436831338</v>
+        <v>0.2734804656716818</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3274655688926202</v>
+        <v>0.3249925918179883</v>
       </c>
       <c r="E2">
-        <v>0.0308554022791615</v>
+        <v>0.02658614787954894</v>
       </c>
       <c r="F2">
-        <v>6.996361418517466</v>
+        <v>6.938395649241812</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006900470799821478</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.599701756364567</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.528924211983281</v>
       </c>
       <c r="L2">
-        <v>2.97445418692844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.940254628606425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2383789649147872</v>
+        <v>0.2380035307645301</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2758696260040523</v>
+        <v>0.2749184413120105</v>
       </c>
       <c r="E3">
-        <v>0.0299632364798631</v>
+        <v>0.02573919278476144</v>
       </c>
       <c r="F3">
-        <v>5.917794489306857</v>
+        <v>5.881073211524239</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000710605401894604</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.902552922051854</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3.842377076959025</v>
       </c>
       <c r="L3">
-        <v>2.518766358615011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.490600976178769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2169163341083333</v>
+        <v>0.2165868601119314</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2466198317291486</v>
+        <v>0.246545374677055</v>
       </c>
       <c r="E4">
-        <v>0.02951110475320606</v>
+        <v>0.02530630028754965</v>
       </c>
       <c r="F4">
-        <v>5.298002885325644</v>
+        <v>5.273396057625803</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007231811949262393</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.492610876685319</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.43853444521325</v>
       </c>
       <c r="L4">
-        <v>2.251429413199602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.226707722491525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2082487740763668</v>
+        <v>0.2079374421632565</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2351917004678654</v>
+        <v>0.2354643296224737</v>
       </c>
       <c r="E5">
-        <v>0.02934531394650297</v>
+        <v>0.02514665782733039</v>
       </c>
       <c r="F5">
-        <v>5.054029347041592</v>
+        <v>5.034192007691615</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007283137846411371</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.329133484659906</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.277470552502834</v>
       </c>
       <c r="L5">
-        <v>2.144969313478398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.121604214305435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2068139063426315</v>
+        <v>0.2065055562211029</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2333207319294672</v>
+        <v>0.2336504824640997</v>
       </c>
       <c r="E6">
-        <v>0.02931876463650951</v>
+        <v>0.02512103798747023</v>
       </c>
       <c r="F6">
-        <v>5.013984433380102</v>
+        <v>4.994930552996209</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007291670204521057</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3.302179637302629</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.250913852695618</v>
       </c>
       <c r="L6">
-        <v>2.1274251513438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.104282941914391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2167991392056052</v>
+        <v>0.2164699120347393</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2464638576314115</v>
+        <v>0.2463941179483413</v>
       </c>
       <c r="E7">
-        <v>0.02950880037254944</v>
+        <v>0.02530408517617244</v>
       </c>
       <c r="F7">
-        <v>5.294680190780127</v>
+        <v>5.27013828921838</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007232503598640274</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3.490392816219185</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.436349191349223</v>
       </c>
       <c r="L7">
-        <v>2.249984365489382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.22528113846036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2615897986123343</v>
+        <v>0.2611627742140286</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3090896267246848</v>
+        <v>0.3071563720450854</v>
       </c>
       <c r="E8">
-        <v>0.03052399722051347</v>
+        <v>0.02627241936033253</v>
       </c>
       <c r="F8">
-        <v>6.614253234446863</v>
+        <v>6.563852553362977</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0006971586724432979</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.354903755831856</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.287888772695027</v>
       </c>
       <c r="L8">
-        <v>2.814307280887363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.782255978602265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3531633192094432</v>
+        <v>0.3525058234188236</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.458626710352263</v>
+        <v>0.4522799650601144</v>
       </c>
       <c r="E9">
-        <v>0.03365708969275927</v>
+        <v>0.02921403775020437</v>
       </c>
       <c r="F9">
-        <v>9.667148303495821</v>
+        <v>9.553984161864349</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006444098841653804</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.254480043183293</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>6.156579875045992</v>
       </c>
       <c r="L9">
-        <v>4.059887853561889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>4.010011148900517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4242637403790184</v>
+        <v>0.4233774669372963</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6009263736685568</v>
+        <v>0.5900936584510248</v>
       </c>
       <c r="E10">
-        <v>0.03759248505260127</v>
+        <v>0.03286394754771793</v>
       </c>
       <c r="F10">
-        <v>12.46939059659093</v>
+        <v>12.29059389172954</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006021166586159998</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.905239924569486</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7.775580030598121</v>
       </c>
       <c r="L10">
-        <v>5.145458694468786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>5.076882958335446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4580015021401209</v>
+        <v>0.4569786301483276</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6796538190650665</v>
+        <v>0.6660828926403894</v>
       </c>
       <c r="E11">
-        <v>0.04020088482781015</v>
+        <v>0.03526419971259775</v>
       </c>
       <c r="F11">
-        <v>13.98286319106279</v>
+        <v>13.76326619173386</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005810291096848368</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.767369560034183</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>8.618106572926706</v>
       </c>
       <c r="L11">
-        <v>5.712524644278659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.632271942328927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4710584001795581</v>
+        <v>0.4699751315323084</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7126165596900478</v>
+        <v>0.6978214425427609</v>
       </c>
       <c r="E12">
-        <v>0.04139051585371645</v>
+        <v>0.03635411769635422</v>
       </c>
       <c r="F12">
-        <v>14.60931141447162</v>
+        <v>14.37132096953775</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005726057745582288</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.11889164408862</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.96081031524534</v>
       </c>
       <c r="L12">
-        <v>5.943622004877483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.858090412172814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4682320098114729</v>
+        <v>0.4671622459864153</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7053494777401283</v>
+        <v>0.6908287744235793</v>
       </c>
       <c r="E13">
-        <v>0.04112315047224824</v>
+        <v>0.03610942739848877</v>
       </c>
       <c r="F13">
-        <v>14.47156022906591</v>
+        <v>14.23770041831597</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005744435130329406</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.041849878352934</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.885748142328822</v>
       </c>
       <c r="L13">
-        <v>5.89298192660263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.808636622975385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4590694231750945</v>
+        <v>0.4580417941381967</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6822929173852401</v>
+        <v>0.66862585856137</v>
       </c>
       <c r="E14">
-        <v>0.0402939614367086</v>
+        <v>0.0353495838433302</v>
       </c>
       <c r="F14">
-        <v>14.03317269710283</v>
+        <v>13.81213451889914</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005803463291861923</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.795710988644799</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.645756723817641</v>
       </c>
       <c r="L14">
-        <v>5.731160315182279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.650494330348621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4534969156867987</v>
+        <v>0.4524937790351657</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6686284179772031</v>
+        <v>0.6554557709718267</v>
       </c>
       <c r="E15">
-        <v>0.03981606850410868</v>
+        <v>0.03491099242991158</v>
       </c>
       <c r="F15">
-        <v>13.77239126957926</v>
+        <v>13.55875908528083</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005838977677801782</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.648587782577749</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.502186580459494</v>
       </c>
       <c r="L15">
-        <v>5.634415048751336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.555872258560555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4220928490037608</v>
+        <v>0.4212145860073093</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5961433274701733</v>
+        <v>0.5854698129367364</v>
       </c>
       <c r="E16">
-        <v>0.03744425426175901</v>
+        <v>0.03272711386726579</v>
       </c>
       <c r="F16">
-        <v>12.37663121922373</v>
+        <v>12.20019086665991</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006034453280942081</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.851776590335902</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>7.723251246251778</v>
       </c>
       <c r="L16">
-        <v>5.110287064702021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>5.042384372790423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.403229234412791</v>
+        <v>0.4024173832134323</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5558567385616016</v>
+        <v>0.5464970915022889</v>
       </c>
       <c r="E17">
-        <v>0.03624079143561687</v>
+        <v>0.03161441901467033</v>
       </c>
       <c r="F17">
-        <v>11.59152390091069</v>
+        <v>11.43445829174962</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006148723559613704</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.396202446873559</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>7.277018938284897</v>
       </c>
       <c r="L17">
-        <v>4.81058786493702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.748213941810803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3925041299290797</v>
+        <v>0.3917277580309957</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5339079683774344</v>
+        <v>0.5252458331101479</v>
       </c>
       <c r="E18">
-        <v>0.03561846300888449</v>
+        <v>0.0310377580825727</v>
       </c>
       <c r="F18">
-        <v>11.16085070152894</v>
+        <v>11.01401644359368</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006212851040448438</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.143884862915883</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>7.029645439284963</v>
       </c>
       <c r="L18">
-        <v>4.644621076126882</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.585163180715895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.38889241805974</v>
+        <v>0.3881276629631287</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5266629574855983</v>
+        <v>0.518228543854292</v>
       </c>
       <c r="E19">
-        <v>0.03541811723170341</v>
+        <v>0.03085192182590601</v>
       </c>
       <c r="F19">
-        <v>11.01822539119138</v>
+        <v>10.87472291953196</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006234325383751917</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.059934621864244</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>6.947307070554899</v>
       </c>
       <c r="L19">
-        <v>4.5894067948133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.530897986604089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4052239398401554</v>
+        <v>0.4044053185875924</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5600128144527616</v>
+        <v>0.550519722936798</v>
       </c>
       <c r="E20">
-        <v>0.03636125606643592</v>
+        <v>0.03172594174337906</v>
       </c>
       <c r="F20">
-        <v>11.67283742795928</v>
+        <v>11.51381001293308</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006136733751438405</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.443646105740839</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>7.323515517992092</v>
       </c>
       <c r="L20">
-        <v>4.841797093337505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.778863763093739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4617521714052657</v>
+        <v>0.4607124546393209</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6889662859881014</v>
+        <v>0.6750547278040813</v>
       </c>
       <c r="E21">
-        <v>0.04053099271296468</v>
+        <v>0.0355669420910858</v>
       </c>
       <c r="F21">
-        <v>14.16026773077959</v>
+        <v>13.93556160351039</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005786264125729337</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.867221661913504</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>8.715508300911125</v>
       </c>
       <c r="L21">
-        <v>5.778179077368279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.696460989336487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.500420918169894</v>
+        <v>0.4991798373191756</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7929797165311356</v>
+        <v>0.7749510374912063</v>
       </c>
       <c r="E22">
-        <v>0.04454600669881259</v>
+        <v>0.0392299212453362</v>
       </c>
       <c r="F22">
-        <v>16.11945241467174</v>
+        <v>15.83248962962296</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.000552968171052548</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.954481153152244</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.772951749320612</v>
       </c>
       <c r="L22">
-        <v>6.492433274602718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>6.392802245059883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4795819596071738</v>
+        <v>0.4784563641791664</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7349996426740688</v>
+        <v>0.7193420020108476</v>
       </c>
       <c r="E23">
-        <v>0.04223242649012926</v>
+        <v>0.03712360692361516</v>
       </c>
       <c r="F23">
-        <v>15.03233742513788</v>
+        <v>14.78133656846228</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005670119228218805</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.354603781999003</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>9.190289599616619</v>
       </c>
       <c r="L23">
-        <v>6.098521613979983</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>6.009250493275232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4043217655245996</v>
+        <v>0.403506213197943</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5581301475259579</v>
+        <v>0.5486975614065841</v>
       </c>
       <c r="E24">
-        <v>0.03630658247912733</v>
+        <v>0.03167533053208826</v>
       </c>
       <c r="F24">
-        <v>11.63601232236238</v>
+        <v>11.47787458723758</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006142159116786505</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.422167504365262</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>7.302466382399672</v>
       </c>
       <c r="L24">
-        <v>4.827668040854206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.764988413201706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3278583547907772</v>
+        <v>0.327269885860872</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4140368348031132</v>
+        <v>0.4090204548002845</v>
       </c>
       <c r="E25">
-        <v>0.03261830436741708</v>
+        <v>0.02824359318554071</v>
       </c>
       <c r="F25">
-        <v>8.769555384825139</v>
+        <v>8.675517655382691</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006590549536727409</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.708370677898728</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>5.619812071460871</v>
       </c>
       <c r="L25">
-        <v>3.701218394324471</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.656776291289262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2734804656716818</v>
+        <v>0.2747310585180429</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3249925918179883</v>
+        <v>0.09436314248899436</v>
       </c>
       <c r="E2">
-        <v>0.02658614787954894</v>
+        <v>3.247742716078619</v>
       </c>
       <c r="F2">
-        <v>6.938395649241812</v>
+        <v>3.181586094762636</v>
       </c>
       <c r="G2">
-        <v>0.0006900470799821478</v>
+        <v>0.0006331932860128076</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.528924211983281</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.940254628606425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>18.69402819270468</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.633248381443877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2380035307645301</v>
+        <v>0.2388243246479078</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2749184413120105</v>
+        <v>0.06436134369179314</v>
       </c>
       <c r="E3">
-        <v>0.02573919278476144</v>
+        <v>2.730225625943007</v>
       </c>
       <c r="F3">
-        <v>5.881073211524239</v>
+        <v>2.510210462912568</v>
       </c>
       <c r="G3">
-        <v>0.000710605401894604</v>
+        <v>0.0006576009312878049</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.842377076959025</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.490600976178769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.71835673821235</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.059638465578558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2165868601119314</v>
+        <v>0.2172354708675925</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.246545374677055</v>
+        <v>0.04979815383033426</v>
       </c>
       <c r="E4">
-        <v>0.02530630028754965</v>
+        <v>2.43504716356729</v>
       </c>
       <c r="F4">
-        <v>5.273396057625803</v>
+        <v>2.154715210926625</v>
       </c>
       <c r="G4">
-        <v>0.0007231811949262393</v>
+        <v>0.0006720125673239652</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.43853444521325</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.226707722491525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.0148709434352</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.758220851806428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2079374421632565</v>
+        <v>0.2085303606834117</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2354643296224737</v>
+        <v>0.04457268017067761</v>
       </c>
       <c r="E5">
-        <v>0.02514665782733039</v>
+        <v>2.318846501170327</v>
       </c>
       <c r="F5">
-        <v>5.034192007691615</v>
+        <v>2.020482922651922</v>
       </c>
       <c r="G5">
-        <v>0.0007283137846411371</v>
+        <v>0.0006777995004719898</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.277470552502834</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.121604214305435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.34313140519916</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.644894713930498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2065055562211029</v>
+        <v>0.2070899180378376</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2336504824640997</v>
+        <v>0.0437419270373951</v>
       </c>
       <c r="E6">
-        <v>0.02512103798747023</v>
+        <v>2.299762132778525</v>
       </c>
       <c r="F6">
-        <v>4.994930552996209</v>
+        <v>1.99875286777052</v>
       </c>
       <c r="G6">
-        <v>0.0007291670204521057</v>
+        <v>0.0006787565726670111</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.250913852695618</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.104282941914391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.23274753487217</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.626576285406514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2164699120347393</v>
+        <v>0.2171177217621789</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2463941179483413</v>
+        <v>0.0497250863733214</v>
       </c>
       <c r="E7">
-        <v>0.02530408517617244</v>
+        <v>2.433465187022733</v>
       </c>
       <c r="F7">
-        <v>5.27013828921838</v>
+        <v>2.152865739034638</v>
       </c>
       <c r="G7">
-        <v>0.0007232503598640274</v>
+        <v>0.0006720908969497303</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.436349191349223</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.22528113846036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.00572999772854</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.756657510622617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2611627742140286</v>
+        <v>0.2622395351406368</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3071563720450854</v>
+        <v>0.08302465736269937</v>
       </c>
       <c r="E8">
-        <v>0.02627241936033253</v>
+        <v>3.063444798176164</v>
       </c>
       <c r="F8">
-        <v>6.563852553362977</v>
+        <v>2.935661196789795</v>
       </c>
       <c r="G8">
-        <v>0.0006971586724432979</v>
+        <v>0.0006417711926194311</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.287888772695027</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.782255978602265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.63603839576547</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.422533498072639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3525058234188236</v>
+        <v>0.3559646392194793</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4522799650601144</v>
+        <v>0.2011203162588799</v>
       </c>
       <c r="E9">
-        <v>0.02921403775020437</v>
+        <v>4.611368048250455</v>
       </c>
       <c r="F9">
-        <v>9.553984161864349</v>
+        <v>5.219743549164576</v>
       </c>
       <c r="G9">
-        <v>0.0006444098841653804</v>
+        <v>0.0005729532618575713</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.156579875045992</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.010011148900517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>26.44736897002105</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>4.400919448695419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4233774669372963</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5900936584510248</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E10">
-        <v>0.03286394754771793</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F10">
-        <v>12.29059389172954</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G10">
-        <v>0.0006021166586159998</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7.775580030598121</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.076882958335446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4569786301483276</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6660828926403894</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E11">
-        <v>0.03526419971259775</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F11">
-        <v>13.76326619173386</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G11">
-        <v>0.0005810291096848368</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.618106572926706</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.632271942328927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4699751315323084</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6978214425427609</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E12">
-        <v>0.03635411769635422</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F12">
-        <v>14.37132096953775</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G12">
-        <v>0.0005726057745582288</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.96081031524534</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.858090412172814</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4671622459864153</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6908287744235793</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E13">
-        <v>0.03610942739848877</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F13">
-        <v>14.23770041831597</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G13">
-        <v>0.0005744435130329406</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.885748142328822</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.808636622975385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4580417941381967</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.66862585856137</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E14">
-        <v>0.0353495838433302</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F14">
-        <v>13.81213451889914</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G14">
-        <v>0.0005803463291861923</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.645756723817641</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.650494330348621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4524937790351657</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6554557709718267</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E15">
-        <v>0.03491099242991158</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F15">
-        <v>13.55875908528083</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G15">
-        <v>0.0005838977677801782</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.502186580459494</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.555872258560555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4212145860073093</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5854698129367364</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E16">
-        <v>0.03272711386726579</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F16">
-        <v>12.20019086665991</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G16">
-        <v>0.0006034453280942081</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.723251246251778</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5.042384372790423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4024173832134323</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5464970915022889</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E17">
-        <v>0.03161441901467033</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F17">
-        <v>11.43445829174962</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G17">
-        <v>0.0006148723559613704</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.277018938284897</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.748213941810803</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3917277580309957</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5252458331101479</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E18">
-        <v>0.0310377580825727</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F18">
-        <v>11.01401644359368</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G18">
-        <v>0.0006212851040448438</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.029645439284963</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.585163180715895</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3881276629631287</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.518228543854292</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E19">
-        <v>0.03085192182590601</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F19">
-        <v>10.87472291953196</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G19">
-        <v>0.0006234325383751917</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.947307070554899</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.530897986604089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4044053185875924</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.550519722936798</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E20">
-        <v>0.03172594174337906</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F20">
-        <v>11.51381001293308</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G20">
-        <v>0.0006136733751438405</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.323515517992092</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.778863763093739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4607124546393209</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6750547278040813</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E21">
-        <v>0.0355669420910858</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F21">
-        <v>13.93556160351039</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G21">
-        <v>0.0005786264125729337</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.715508300911125</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.696460989336487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4991798373191756</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7749510374912063</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E22">
-        <v>0.0392299212453362</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F22">
-        <v>15.83248962962296</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G22">
-        <v>0.000552968171052548</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.772951749320612</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6.392802245059883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4784563641791664</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7193420020108476</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E23">
-        <v>0.03712360692361516</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F23">
-        <v>14.78133656846228</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G23">
-        <v>0.0005670119228218805</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.190289599616619</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>6.009250493275232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.403506213197943</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5486975614065841</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E24">
-        <v>0.03167533053208826</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F24">
-        <v>11.47787458723758</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G24">
-        <v>0.0006142159116786505</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.302466382399672</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.764988413201706</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>7.513641513695177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.327269885860872</v>
+        <v>0.4338887849784641</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4090204548002845</v>
+        <v>0.4276497442328662</v>
       </c>
       <c r="E25">
-        <v>0.02824359318554071</v>
+        <v>6.579107204668759</v>
       </c>
       <c r="F25">
-        <v>8.675517655382691</v>
+        <v>8.731429265457706</v>
       </c>
       <c r="G25">
-        <v>0.0006590549536727409</v>
+        <v>0.0004946642283583178</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>5.619812071460871</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.656776291289262</v>
+        <v>37.25050901211688</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>7.513641513695177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2747310585180429</v>
+        <v>0.8182814493738135</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09436314248899436</v>
+        <v>0.1260802167705748</v>
       </c>
       <c r="E2">
-        <v>3.247742716078619</v>
+        <v>0.1240447557587876</v>
       </c>
       <c r="F2">
-        <v>3.181586094762636</v>
+        <v>0.6632087131762461</v>
       </c>
       <c r="G2">
-        <v>0.0006331932860128076</v>
+        <v>0.3844096949678786</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3447739866184847</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1856506366177282</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.182034826057901</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1825584689331521</v>
       </c>
       <c r="M2">
-        <v>18.69402819270468</v>
+        <v>0.1997775796956489</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.633248381443877</v>
+        <v>1.483674737255114</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2388243246479078</v>
+        <v>0.7282135938446004</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06436134369179314</v>
+        <v>0.1226654353390515</v>
       </c>
       <c r="E3">
-        <v>2.730225625943007</v>
+        <v>0.127376257448482</v>
       </c>
       <c r="F3">
-        <v>2.510210462912568</v>
+        <v>0.6613751652187716</v>
       </c>
       <c r="G3">
-        <v>0.0006576009312878049</v>
+        <v>0.3817257857425105</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3492389300770142</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1911367930791634</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.050976756688755</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1588698461068176</v>
       </c>
       <c r="M3">
-        <v>15.71835673821235</v>
+        <v>0.1753329534867554</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.059638465578558</v>
+        <v>1.486983647717025</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2172354708675925</v>
+        <v>0.6733083395965025</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04979815383033426</v>
+        <v>0.1206889630316326</v>
       </c>
       <c r="E4">
-        <v>2.43504716356729</v>
+        <v>0.1295452714310814</v>
       </c>
       <c r="F4">
-        <v>2.154715210926625</v>
+        <v>0.6613576611384389</v>
       </c>
       <c r="G4">
-        <v>0.0006720125673239652</v>
+        <v>0.3808802441393837</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3524842347952628</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1946551110407695</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9703626984717459</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1443244152014103</v>
       </c>
       <c r="M4">
-        <v>14.0148709434352</v>
+        <v>0.1603786633760436</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.758220851806428</v>
+        <v>1.491762113335142</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2085303606834117</v>
+        <v>0.6510258553970516</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04457268017067761</v>
+        <v>0.1199130895852889</v>
       </c>
       <c r="E5">
-        <v>2.318846501170327</v>
+        <v>0.130459910548395</v>
       </c>
       <c r="F5">
-        <v>2.020482922651922</v>
+        <v>0.6616206340389965</v>
       </c>
       <c r="G5">
-        <v>0.0006777995004719898</v>
+        <v>0.3807299151322852</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3539301550847469</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1961262901467133</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9374687526180026</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1383955795445573</v>
       </c>
       <c r="M5">
-        <v>13.34313140519916</v>
+        <v>0.1542966467302413</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.644894713930498</v>
+        <v>1.494377281001448</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2070899180378376</v>
+        <v>0.6473311896708083</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0437419270373951</v>
+        <v>0.1197860222419109</v>
       </c>
       <c r="E6">
-        <v>2.299762132778525</v>
+        <v>0.1306136343126614</v>
       </c>
       <c r="F6">
-        <v>1.99875286777052</v>
+        <v>0.6616803698322116</v>
       </c>
       <c r="G6">
-        <v>0.0006787565726670111</v>
+        <v>0.3807164702347876</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3541776114929576</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1963728327617211</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9320039443401527</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1374109759113864</v>
       </c>
       <c r="M6">
-        <v>13.23274753487217</v>
+        <v>0.1532874050538418</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.626576285406514</v>
+        <v>1.494851218923515</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2171177217621789</v>
+        <v>0.6730074684920169</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0497250863733214</v>
+        <v>0.1206783805346561</v>
       </c>
       <c r="E7">
-        <v>2.433465187022733</v>
+        <v>0.1295574824590595</v>
       </c>
       <c r="F7">
-        <v>2.152865739034638</v>
+        <v>0.6613601251205523</v>
       </c>
       <c r="G7">
-        <v>0.0006720908969497303</v>
+        <v>0.3808774400172084</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3525032394078949</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.194674800597646</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9699192623576209</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1442444644311678</v>
       </c>
       <c r="M7">
-        <v>14.00572999772854</v>
+        <v>0.1602965929890274</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.756657510622617</v>
+        <v>1.491794707501995</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2622395351406368</v>
+        <v>0.7871387863893062</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08302465736269937</v>
+        <v>0.1248774332702709</v>
       </c>
       <c r="E8">
-        <v>3.063444798176164</v>
+        <v>0.1251676529403882</v>
       </c>
       <c r="F8">
-        <v>2.935661196789795</v>
+        <v>0.6623411984575114</v>
       </c>
       <c r="G8">
-        <v>0.0006417711926194311</v>
+        <v>0.3833131143730313</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3462069306999354</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1875110321295361</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.136871547782505</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1743899116159184</v>
       </c>
       <c r="M8">
-        <v>17.63603839576547</v>
+        <v>0.1913365739843087</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.422533498072639</v>
+        <v>1.484231532419329</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3559646392194793</v>
+        <v>1.014485964234382</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2011203162588799</v>
+        <v>0.1340979573221261</v>
       </c>
       <c r="E9">
-        <v>4.611368048250455</v>
+        <v>0.1175524350965285</v>
       </c>
       <c r="F9">
-        <v>5.219743549164576</v>
+        <v>0.6734647461672978</v>
       </c>
       <c r="G9">
-        <v>0.0005729532618575713</v>
+        <v>0.3948121636274493</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.338011167679511</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.174661986559526</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.46347071233825</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2335674156322938</v>
       </c>
       <c r="M9">
-        <v>26.44736897002105</v>
+        <v>0.2527298627449817</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.400919448695419</v>
+        <v>1.492272196606791</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4338887849784641</v>
+        <v>1.184258121365474</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4276497442328662</v>
+        <v>0.1415212269502391</v>
       </c>
       <c r="E10">
-        <v>6.579107204668759</v>
+        <v>0.1125824088307317</v>
       </c>
       <c r="F10">
-        <v>8.731429265457706</v>
+        <v>0.6878381379032774</v>
       </c>
       <c r="G10">
-        <v>0.0004946642283583178</v>
+        <v>0.4078791767162215</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3347449835037537</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1659675728487908</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.703477974667891</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.277185706602765</v>
       </c>
       <c r="M10">
-        <v>37.25050901211688</v>
+        <v>0.2982902519440387</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.513641513695177</v>
+        <v>1.513697230334287</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4338887849784641</v>
+        <v>1.262225342660372</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4276497442328662</v>
+        <v>0.1450503166035517</v>
       </c>
       <c r="E11">
-        <v>6.579107204668759</v>
+        <v>0.1104615601401475</v>
       </c>
       <c r="F11">
-        <v>8.731429265457706</v>
+        <v>0.6958621883674567</v>
       </c>
       <c r="G11">
-        <v>0.0004946642283583178</v>
+        <v>0.4149486544286276</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3339101318955215</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.16217763975681</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.812805210598896</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2970839495715296</v>
       </c>
       <c r="M11">
-        <v>37.25050901211688</v>
+        <v>0.3191477930326982</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.513641513695177</v>
+        <v>1.527182946104517</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4338887849784641</v>
+        <v>1.291867410971946</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4276497442328662</v>
+        <v>0.1464095385113851</v>
       </c>
       <c r="E12">
-        <v>6.579107204668759</v>
+        <v>0.1096789858071316</v>
       </c>
       <c r="F12">
-        <v>8.731429265457706</v>
+        <v>0.6991265596000815</v>
       </c>
       <c r="G12">
-        <v>0.0004946642283583178</v>
+        <v>0.4177982955187218</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3336922926454662</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1607665662738142</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.854236814838686</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3046290682621589</v>
       </c>
       <c r="M12">
-        <v>37.25050901211688</v>
+        <v>0.3270677354302052</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.513641513695177</v>
+        <v>1.532860104065747</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4338887849784641</v>
+        <v>1.285478039542056</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4276497442328662</v>
+        <v>0.1461157746796715</v>
       </c>
       <c r="E13">
-        <v>6.579107204668759</v>
+        <v>0.1098466067487589</v>
       </c>
       <c r="F13">
-        <v>8.731429265457706</v>
+        <v>0.6984132722242649</v>
       </c>
       <c r="G13">
-        <v>0.0004946642283583178</v>
+        <v>0.4171767199522805</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3337347583842529</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1610693891459807</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.845312187374901</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.303003609596928</v>
       </c>
       <c r="M13">
-        <v>37.25050901211688</v>
+        <v>0.3253610269361573</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.513641513695177</v>
+        <v>1.531611515220106</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4338887849784641</v>
+        <v>1.264661588065735</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4276497442328662</v>
+        <v>0.1451616774174127</v>
       </c>
       <c r="E14">
-        <v>6.579107204668759</v>
+        <v>0.1103967631221057</v>
       </c>
       <c r="F14">
-        <v>8.731429265457706</v>
+        <v>0.6961261514236057</v>
       </c>
       <c r="G14">
-        <v>0.0004946642283583178</v>
+        <v>0.4151795732056485</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3338902121011813</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1620610650609162</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.81621311344918</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2977044767804955</v>
       </c>
       <c r="M14">
-        <v>37.25050901211688</v>
+        <v>0.3197989217003112</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7.513641513695177</v>
+        <v>1.5276383829964</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4338887849784641</v>
+        <v>1.25192657871554</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4276497442328662</v>
+        <v>0.1445802676597552</v>
       </c>
       <c r="E15">
-        <v>6.579107204668759</v>
+        <v>0.1107364377820002</v>
       </c>
       <c r="F15">
-        <v>8.731429265457706</v>
+        <v>0.69475500977655</v>
       </c>
       <c r="G15">
-        <v>0.0004946642283583178</v>
+        <v>0.4139790696965093</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3339983779808051</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1626716429743515</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.798393555020994</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2944599809437705</v>
       </c>
       <c r="M15">
-        <v>37.25050901211688</v>
+        <v>0.3163948728891626</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.513641513695177</v>
+        <v>1.525280013625746</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4338887849784641</v>
+        <v>1.179178584920095</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4276497442328662</v>
+        <v>0.1412937350555978</v>
       </c>
       <c r="E16">
-        <v>6.579107204668759</v>
+        <v>0.1127238636382542</v>
       </c>
       <c r="F16">
-        <v>8.731429265457706</v>
+        <v>0.687344668110434</v>
       </c>
       <c r="G16">
-        <v>0.0004946642283583178</v>
+        <v>0.4074407185964759</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3348130366209432</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1662186064690596</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.696337028382544</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2758866075318309</v>
       </c>
       <c r="M16">
-        <v>37.25050901211688</v>
+        <v>0.2969300415225788</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.513641513695177</v>
+        <v>1.512893902257503</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4338887849784641</v>
+        <v>1.134746832337754</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4276497442328662</v>
+        <v>0.139317193996412</v>
       </c>
       <c r="E17">
-        <v>6.579107204668759</v>
+        <v>0.1139792366106356</v>
       </c>
       <c r="F17">
-        <v>8.731429265457706</v>
+        <v>0.6831876113258701</v>
       </c>
       <c r="G17">
-        <v>0.0004946642283583178</v>
+        <v>0.4037253141702379</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3354827783153809</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1684370988883206</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.633773574335152</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2645081990495868</v>
       </c>
       <c r="M17">
-        <v>37.25050901211688</v>
+        <v>0.2850246290771565</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.513641513695177</v>
+        <v>1.506275806744213</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4338887849784641</v>
+        <v>1.109259497947107</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4276497442328662</v>
+        <v>0.1381946067439301</v>
       </c>
       <c r="E18">
-        <v>6.579107204668759</v>
+        <v>0.1147144497719506</v>
       </c>
       <c r="F18">
-        <v>8.731429265457706</v>
+        <v>0.6809356332528935</v>
       </c>
       <c r="G18">
-        <v>0.0004946642283583178</v>
+        <v>0.401693540771042</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3359289690283731</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1697286451951374</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.597801857992408</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2579687868286271</v>
       </c>
       <c r="M18">
-        <v>37.25050901211688</v>
+        <v>0.2781891943127661</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.513641513695177</v>
+        <v>1.502819147612882</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4338887849784641</v>
+        <v>1.100641371201135</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4276497442328662</v>
+        <v>0.1378169403758562</v>
       </c>
       <c r="E19">
-        <v>6.579107204668759</v>
+        <v>0.1149656277484254</v>
       </c>
       <c r="F19">
-        <v>8.731429265457706</v>
+        <v>0.6801966736356206</v>
       </c>
       <c r="G19">
-        <v>0.0004946642283583178</v>
+        <v>0.401023372561788</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3360903753135389</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.170168597599142</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.585624395501753</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2557554789341765</v>
       </c>
       <c r="M19">
-        <v>37.25050901211688</v>
+        <v>0.2758768576460326</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.513641513695177</v>
+        <v>1.501707912841766</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4338887849784641</v>
+        <v>1.139469483204891</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4276497442328662</v>
+        <v>0.1395261169154907</v>
       </c>
       <c r="E20">
-        <v>6.579107204668759</v>
+        <v>0.1138442355483802</v>
       </c>
       <c r="F20">
-        <v>8.731429265457706</v>
+        <v>0.6836156596354783</v>
       </c>
       <c r="G20">
-        <v>0.0004946642283583178</v>
+        <v>0.4041098585261267</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3354051396021447</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1681993271002362</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.64043212743394</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2657189031152285</v>
       </c>
       <c r="M20">
-        <v>37.25050901211688</v>
+        <v>0.2862906945497841</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.513641513695177</v>
+        <v>1.506943871059008</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4338887849784641</v>
+        <v>1.270772597475002</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4276497442328662</v>
+        <v>0.1454412914608625</v>
       </c>
       <c r="E21">
-        <v>6.579107204668759</v>
+        <v>0.1102346079286498</v>
       </c>
       <c r="F21">
-        <v>8.731429265457706</v>
+        <v>0.6967917040452463</v>
       </c>
       <c r="G21">
-        <v>0.0004946642283583178</v>
+        <v>0.4157614105851479</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3338418448525005</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1617691291849352</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.824759266303488</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2992606699618108</v>
       </c>
       <c r="M21">
-        <v>37.25050901211688</v>
+        <v>0.3214320371850476</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.513641513695177</v>
+        <v>1.528789636916173</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4338887849784641</v>
+        <v>1.357278002559156</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4276497442328662</v>
+        <v>0.1494407601242784</v>
       </c>
       <c r="E22">
-        <v>6.579107204668759</v>
+        <v>0.1079954632617772</v>
       </c>
       <c r="F22">
-        <v>8.731429265457706</v>
+        <v>0.7067255709623623</v>
       </c>
       <c r="G22">
-        <v>0.0004946642283583178</v>
+        <v>0.4243878055318504</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3333955065027681</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1577072189182873</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.945418296031249</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3212419867847984</v>
       </c>
       <c r="M22">
-        <v>37.25050901211688</v>
+        <v>0.3445264680655882</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.513641513695177</v>
+        <v>1.546408538598087</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4338887849784641</v>
+        <v>1.311041166552087</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4276497442328662</v>
+        <v>0.1472936217336738</v>
       </c>
       <c r="E23">
-        <v>6.579107204668759</v>
+        <v>0.1091794211657486</v>
       </c>
       <c r="F23">
-        <v>8.731429265457706</v>
+        <v>0.7012984334399164</v>
       </c>
       <c r="G23">
-        <v>0.0004946642283583178</v>
+        <v>0.4196874546254321</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3335794514097188</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1598621563050751</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.880999137208789</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3095039626319931</v>
       </c>
       <c r="M23">
-        <v>37.25050901211688</v>
+        <v>0.3321879345230414</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.513641513695177</v>
+        <v>1.536687923480798</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4338887849784641</v>
+        <v>1.137334195848837</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4276497442328662</v>
+        <v>0.1394316200985841</v>
       </c>
       <c r="E24">
-        <v>6.579107204668759</v>
+        <v>0.1139052275641816</v>
       </c>
       <c r="F24">
-        <v>8.731429265457706</v>
+        <v>0.6834217101670319</v>
       </c>
       <c r="G24">
-        <v>0.0004946642283583178</v>
+        <v>0.4039356820770337</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3354400499558778</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1683067735859369</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.63742180619542</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2651715371482624</v>
       </c>
       <c r="M24">
-        <v>37.25050901211688</v>
+        <v>0.285718278063996</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.513641513695177</v>
+        <v>1.506640757152979</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4338887849784641</v>
+        <v>0.9525456900376241</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4276497442328662</v>
+        <v>0.1314931968236621</v>
       </c>
       <c r="E25">
-        <v>6.579107204668759</v>
+        <v>0.1195042740878982</v>
       </c>
       <c r="F25">
-        <v>8.731429265457706</v>
+        <v>0.6694114023585271</v>
       </c>
       <c r="G25">
-        <v>0.0004946642283583178</v>
+        <v>0.3909296751423454</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3397615040812738</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1780081472772608</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.375148555472663</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2175414755069625</v>
       </c>
       <c r="M25">
-        <v>37.25050901211688</v>
+        <v>0.2360517842380467</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.513641513695177</v>
+        <v>1.487491153430568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8182814493738135</v>
+        <v>0.9019181025842329</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1260802167705748</v>
+        <v>0.2950447304472732</v>
       </c>
       <c r="E2">
-        <v>0.1240447557587876</v>
+        <v>0.3159889265604434</v>
       </c>
       <c r="F2">
-        <v>0.6632087131762461</v>
+        <v>1.49810685513463</v>
       </c>
       <c r="G2">
-        <v>0.3844096949678786</v>
+        <v>0.780123361248485</v>
       </c>
       <c r="H2">
-        <v>0.3447739866184847</v>
+        <v>0.8762598520114366</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1856506366177282</v>
+        <v>0.4149153750845276</v>
       </c>
       <c r="K2">
-        <v>1.182034826057901</v>
+        <v>0.3636192724592604</v>
       </c>
       <c r="L2">
-        <v>0.1825584689331521</v>
+        <v>0.09193412346857599</v>
       </c>
       <c r="M2">
-        <v>0.1997775796956489</v>
+        <v>0.1723180485962175</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.483674737255114</v>
+        <v>3.326857037664681</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7282135938446004</v>
+        <v>0.8797045962019183</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1226654353390515</v>
+        <v>0.2955555724836358</v>
       </c>
       <c r="E3">
-        <v>0.127376257448482</v>
+        <v>0.3182675989860906</v>
       </c>
       <c r="F3">
-        <v>0.6613751652187716</v>
+        <v>1.507518249656592</v>
       </c>
       <c r="G3">
-        <v>0.3817257857425105</v>
+        <v>0.7854615810608649</v>
       </c>
       <c r="H3">
-        <v>0.3492389300770142</v>
+        <v>0.8824372293548208</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1911367930791634</v>
+        <v>0.4178062770101558</v>
       </c>
       <c r="K3">
-        <v>1.050976756688755</v>
+        <v>0.3202758800964034</v>
       </c>
       <c r="L3">
-        <v>0.1588698461068176</v>
+        <v>0.08478178247589341</v>
       </c>
       <c r="M3">
-        <v>0.1753329534867554</v>
+        <v>0.1656910795737474</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.486983647717025</v>
+        <v>3.350857000625552</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6733083395965025</v>
+        <v>0.866378320305472</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1206889630316326</v>
+        <v>0.2959638960239417</v>
       </c>
       <c r="E4">
-        <v>0.1295452714310814</v>
+        <v>0.3197544185701204</v>
       </c>
       <c r="F4">
-        <v>0.6613576611384389</v>
+        <v>1.513971668206437</v>
       </c>
       <c r="G4">
-        <v>0.3808802441393837</v>
+        <v>0.7891719310338559</v>
       </c>
       <c r="H4">
-        <v>0.3524842347952628</v>
+        <v>0.8865560561696668</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1946551110407695</v>
+        <v>0.4196805312810259</v>
       </c>
       <c r="K4">
-        <v>0.9703626984717459</v>
+        <v>0.2935319630387028</v>
       </c>
       <c r="L4">
-        <v>0.1443244152014103</v>
+        <v>0.08039613549231461</v>
       </c>
       <c r="M4">
-        <v>0.1603786633760436</v>
+        <v>0.1616700459861136</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.491762113335142</v>
+        <v>3.367183790651126</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6510258553970516</v>
+        <v>0.8610270484147122</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1199130895852889</v>
+        <v>0.2961541678882682</v>
       </c>
       <c r="E5">
-        <v>0.130459910548395</v>
+        <v>0.3203824022191943</v>
       </c>
       <c r="F5">
-        <v>0.6616206340389965</v>
+        <v>1.516771350658146</v>
       </c>
       <c r="G5">
-        <v>0.3807299151322852</v>
+        <v>0.7907927616175883</v>
       </c>
       <c r="H5">
-        <v>0.3539301550847469</v>
+        <v>0.8883165577976584</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1961262901467133</v>
+        <v>0.4204693016269978</v>
       </c>
       <c r="K5">
-        <v>0.9374687526180026</v>
+        <v>0.2826014131433965</v>
       </c>
       <c r="L5">
-        <v>0.1383955795445573</v>
+        <v>0.07861058082998795</v>
       </c>
       <c r="M5">
-        <v>0.1542966467302413</v>
+        <v>0.1600436546131903</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.494377281001448</v>
+        <v>3.374237365397263</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6473311896708083</v>
+        <v>0.8601432809236371</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1197860222419109</v>
+        <v>0.2961872066136948</v>
       </c>
       <c r="E6">
-        <v>0.1306136343126614</v>
+        <v>0.3204880138910475</v>
       </c>
       <c r="F6">
-        <v>0.6616803698322116</v>
+        <v>1.517246500386598</v>
       </c>
       <c r="G6">
-        <v>0.3807164702347876</v>
+        <v>0.7910684736088029</v>
       </c>
       <c r="H6">
-        <v>0.3541776114929576</v>
+        <v>0.8886138460258408</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1963728327617211</v>
+        <v>0.4206017873839381</v>
       </c>
       <c r="K6">
-        <v>0.9320039443401527</v>
+        <v>0.2807844811798645</v>
       </c>
       <c r="L6">
-        <v>0.1374109759113864</v>
+        <v>0.0783141936460936</v>
       </c>
       <c r="M6">
-        <v>0.1532874050538418</v>
+        <v>0.1597743357182644</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.494851218923515</v>
+        <v>3.375432789880577</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6730074684920169</v>
+        <v>0.8663058293124948</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1206783805346561</v>
+        <v>0.2959663653242757</v>
       </c>
       <c r="E7">
-        <v>0.1295574824590595</v>
+        <v>0.3197627982738984</v>
       </c>
       <c r="F7">
-        <v>0.6613601251205523</v>
+        <v>1.514008737696571</v>
       </c>
       <c r="G7">
-        <v>0.3808774400172084</v>
+        <v>0.7891933494135301</v>
       </c>
       <c r="H7">
-        <v>0.3525032394078949</v>
+        <v>0.8865794665779703</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.194674800597646</v>
+        <v>0.4196910676443384</v>
       </c>
       <c r="K7">
-        <v>0.9699192623576209</v>
+        <v>0.2933846791738688</v>
       </c>
       <c r="L7">
-        <v>0.1442444644311678</v>
+        <v>0.08037204807855147</v>
       </c>
       <c r="M7">
-        <v>0.1602965929890274</v>
+        <v>0.1616480622502614</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.491794707501995</v>
+        <v>3.367277296560346</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7871387863893062</v>
+        <v>0.8941942993738792</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1248774332702709</v>
+        <v>0.2952012643208235</v>
       </c>
       <c r="E8">
-        <v>0.1251676529403882</v>
+        <v>0.3167564327122987</v>
       </c>
       <c r="F8">
-        <v>0.6623411984575114</v>
+        <v>1.501211961057926</v>
       </c>
       <c r="G8">
-        <v>0.3833131143730313</v>
+        <v>0.7818742020421396</v>
       </c>
       <c r="H8">
-        <v>0.3462069306999354</v>
+        <v>0.8783222316777781</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1875110321295361</v>
+        <v>0.4158915901488367</v>
       </c>
       <c r="K8">
-        <v>1.136871547782505</v>
+        <v>0.3487020626762956</v>
       </c>
       <c r="L8">
-        <v>0.1743899116159184</v>
+        <v>0.08946685155007117</v>
       </c>
       <c r="M8">
-        <v>0.1913365739843087</v>
+        <v>0.1700232074918837</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.484231532419329</v>
+        <v>3.334802237024178</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.014485964234382</v>
+        <v>0.951342859104841</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1340979573221261</v>
+        <v>0.294448987035075</v>
       </c>
       <c r="E9">
-        <v>0.1175524350965285</v>
+        <v>0.3115551057863071</v>
       </c>
       <c r="F9">
-        <v>0.6734647461672978</v>
+        <v>1.481464051879975</v>
       </c>
       <c r="G9">
-        <v>0.3948121636274493</v>
+        <v>0.7709531031455157</v>
       </c>
       <c r="H9">
-        <v>0.338011167679511</v>
+        <v>0.8647113359931495</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.174661986559526</v>
+        <v>0.4092260884239867</v>
       </c>
       <c r="K9">
-        <v>1.46347071233825</v>
+        <v>0.4561136586841883</v>
       </c>
       <c r="L9">
-        <v>0.2335674156322938</v>
+        <v>0.107343277193678</v>
       </c>
       <c r="M9">
-        <v>0.2527298627449817</v>
+        <v>0.1868214497294893</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.492272196606791</v>
+        <v>3.283729004185773</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.184258121365474</v>
+        <v>0.9948027389778247</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1415212269502391</v>
+        <v>0.2943484805699939</v>
       </c>
       <c r="E10">
-        <v>0.1125824088307317</v>
+        <v>0.3081543913434563</v>
       </c>
       <c r="F10">
-        <v>0.6878381379032774</v>
+        <v>1.470205079164494</v>
       </c>
       <c r="G10">
-        <v>0.4078791767162215</v>
+        <v>0.7650203041600321</v>
       </c>
       <c r="H10">
-        <v>0.3347449835037537</v>
+        <v>0.8562794270650329</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1659675728487908</v>
+        <v>0.404804704786919</v>
       </c>
       <c r="K10">
-        <v>1.703477974667891</v>
+        <v>0.5343504363836757</v>
       </c>
       <c r="L10">
-        <v>0.277185706602765</v>
+        <v>0.1204964295988304</v>
       </c>
       <c r="M10">
-        <v>0.2982902519440387</v>
+        <v>0.199384946888884</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.513697230334287</v>
+        <v>3.253878987043123</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.262225342660372</v>
+        <v>1.014888281255082</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1450503166035517</v>
+        <v>0.294400143990643</v>
       </c>
       <c r="E11">
-        <v>0.1104615601401475</v>
+        <v>0.3066981432947387</v>
       </c>
       <c r="F11">
-        <v>0.6958621883674567</v>
+        <v>1.465786767690886</v>
       </c>
       <c r="G11">
-        <v>0.4149486544286276</v>
+        <v>0.762775141620466</v>
       </c>
       <c r="H11">
-        <v>0.3339101318955215</v>
+        <v>0.8527828088493123</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.16217763975681</v>
+        <v>0.4028959801192258</v>
       </c>
       <c r="K11">
-        <v>1.812805210598896</v>
+        <v>0.5697893885626399</v>
       </c>
       <c r="L11">
-        <v>0.2970839495715296</v>
+        <v>0.1264831533836173</v>
       </c>
       <c r="M11">
-        <v>0.3191477930326982</v>
+        <v>0.205147272631848</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.527182946104517</v>
+        <v>3.241962791590538</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.291867410971946</v>
+        <v>1.022538959998201</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1464095385113851</v>
+        <v>0.294433641149773</v>
       </c>
       <c r="E12">
-        <v>0.1096789858071316</v>
+        <v>0.3061597111347885</v>
       </c>
       <c r="F12">
-        <v>0.6991265596000815</v>
+        <v>1.46421465496725</v>
       </c>
       <c r="G12">
-        <v>0.4177982955187218</v>
+        <v>0.7619901741382904</v>
       </c>
       <c r="H12">
-        <v>0.3336922926454662</v>
+        <v>0.8515073983572279</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1607665662738142</v>
+        <v>0.4021879016942691</v>
       </c>
       <c r="K12">
-        <v>1.854236814838686</v>
+        <v>0.5831867950992091</v>
       </c>
       <c r="L12">
-        <v>0.3046290682621589</v>
+        <v>0.128750514637801</v>
       </c>
       <c r="M12">
-        <v>0.3270677354302052</v>
+        <v>0.2073359538650621</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.532860104065747</v>
+        <v>3.237689294514354</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.285478039542056</v>
+        <v>1.020889270666117</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1461157746796715</v>
+        <v>0.2944258083682598</v>
       </c>
       <c r="E13">
-        <v>0.1098466067487589</v>
+        <v>0.3062750937059988</v>
       </c>
       <c r="F13">
-        <v>0.6984132722242649</v>
+        <v>1.46454874769136</v>
       </c>
       <c r="G13">
-        <v>0.4171767199522805</v>
+        <v>0.7621563301852348</v>
       </c>
       <c r="H13">
-        <v>0.3337347583842529</v>
+        <v>0.8517799168976268</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1610693891459807</v>
+        <v>0.4023397452268362</v>
       </c>
       <c r="K13">
-        <v>1.845312187374901</v>
+        <v>0.5803024396256546</v>
       </c>
       <c r="L13">
-        <v>0.303003609596928</v>
+        <v>0.1282621860889606</v>
       </c>
       <c r="M13">
-        <v>0.3253610269361573</v>
+        <v>0.2068642906607323</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.531611515220106</v>
+        <v>3.238599046144117</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.264661588065735</v>
+        <v>1.015516814599948</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1451616774174127</v>
+        <v>0.2944026209798878</v>
       </c>
       <c r="E14">
-        <v>0.1103967631221057</v>
+        <v>0.3066535854574468</v>
       </c>
       <c r="F14">
-        <v>0.6961261514236057</v>
+        <v>1.465655405579682</v>
       </c>
       <c r="G14">
-        <v>0.4151795732056485</v>
+        <v>0.7627092547148209</v>
       </c>
       <c r="H14">
-        <v>0.3338902121011813</v>
+        <v>0.8526769048345528</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1620610650609162</v>
+        <v>0.4028374313999583</v>
       </c>
       <c r="K14">
-        <v>1.81621311344918</v>
+        <v>0.5708920578314576</v>
       </c>
       <c r="L14">
-        <v>0.2977044767804955</v>
+        <v>0.1266696850483555</v>
       </c>
       <c r="M14">
-        <v>0.3197989217003112</v>
+        <v>0.2053272051438668</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.5276383829964</v>
+        <v>3.241606421447244</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.25192657871554</v>
+        <v>1.012231835052916</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1445802676597552</v>
+        <v>0.2943902304793156</v>
       </c>
       <c r="E15">
-        <v>0.1107364377820002</v>
+        <v>0.3068871168552825</v>
       </c>
       <c r="F15">
-        <v>0.69475500977655</v>
+        <v>1.46634641499935</v>
       </c>
       <c r="G15">
-        <v>0.4139790696965093</v>
+        <v>0.7630564309774286</v>
       </c>
       <c r="H15">
-        <v>0.3339983779808051</v>
+        <v>0.8532326734571285</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1626716429743515</v>
+        <v>0.4031441936683819</v>
       </c>
       <c r="K15">
-        <v>1.798393555020994</v>
+        <v>0.5651249664263105</v>
       </c>
       <c r="L15">
-        <v>0.2944599809437705</v>
+        <v>0.1256942691425991</v>
       </c>
       <c r="M15">
-        <v>0.3163948728891626</v>
+        <v>0.2043865523156398</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.525280013625746</v>
+        <v>3.243479632792287</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.179178584920095</v>
+        <v>0.9934963941563524</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1412937350555978</v>
+        <v>0.2943470578438934</v>
       </c>
       <c r="E16">
-        <v>0.1127238636382542</v>
+        <v>0.3082513839607133</v>
       </c>
       <c r="F16">
-        <v>0.687344668110434</v>
+        <v>1.470507968682583</v>
       </c>
       <c r="G16">
-        <v>0.4074407185964759</v>
+        <v>0.7651761591605606</v>
       </c>
       <c r="H16">
-        <v>0.3348130366209432</v>
+        <v>0.8565147560647546</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1662186064690596</v>
+        <v>0.404931505497709</v>
       </c>
       <c r="K16">
-        <v>1.696337028382544</v>
+        <v>0.5320313042271607</v>
       </c>
       <c r="L16">
-        <v>0.2758866075318309</v>
+        <v>0.1201052361214039</v>
       </c>
       <c r="M16">
-        <v>0.2969300415225788</v>
+        <v>0.1990092997081661</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.512893902257503</v>
+        <v>3.254691180492784</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.134746832337754</v>
+        <v>0.9820831417023328</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.139317193996412</v>
+        <v>0.2943454651641417</v>
       </c>
       <c r="E17">
-        <v>0.1139792366106356</v>
+        <v>0.3091115384216545</v>
       </c>
       <c r="F17">
-        <v>0.6831876113258701</v>
+        <v>1.473241011656476</v>
       </c>
       <c r="G17">
-        <v>0.4037253141702379</v>
+        <v>0.7665927366237639</v>
       </c>
       <c r="H17">
-        <v>0.3354827783153809</v>
+        <v>0.8586150025407733</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1684370988883206</v>
+        <v>0.4060542111400656</v>
       </c>
       <c r="K17">
-        <v>1.633773574335152</v>
+        <v>0.5116900857727558</v>
       </c>
       <c r="L17">
-        <v>0.2645081990495868</v>
+        <v>0.1166772779876055</v>
       </c>
       <c r="M17">
-        <v>0.2850246290771565</v>
+        <v>0.1957224836184395</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.506275806744213</v>
+        <v>3.261994830899368</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.109259497947107</v>
+        <v>0.9755482681241858</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1381946067439301</v>
+        <v>0.2943537195734578</v>
       </c>
       <c r="E18">
-        <v>0.1147144497719506</v>
+        <v>0.3096148206733362</v>
       </c>
       <c r="F18">
-        <v>0.6809356332528935</v>
+        <v>1.474879206860209</v>
       </c>
       <c r="G18">
-        <v>0.401693540771042</v>
+        <v>0.7674502195709962</v>
       </c>
       <c r="H18">
-        <v>0.3359289690283731</v>
+        <v>0.8598549311235644</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1697286451951374</v>
+        <v>0.4067096197222666</v>
       </c>
       <c r="K18">
-        <v>1.597801857992408</v>
+        <v>0.4999761562296214</v>
       </c>
       <c r="L18">
-        <v>0.2579687868286271</v>
+        <v>0.1147059258708651</v>
       </c>
       <c r="M18">
-        <v>0.2781891943127661</v>
+        <v>0.1938364395822418</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.502819147612882</v>
+        <v>3.266352212643554</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.100641371201135</v>
+        <v>0.973340797371435</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1378169403758562</v>
+        <v>0.2943580915590047</v>
       </c>
       <c r="E19">
-        <v>0.1149656277484254</v>
+        <v>0.3097866918698902</v>
       </c>
       <c r="F19">
-        <v>0.6801966736356206</v>
+        <v>1.475445249708507</v>
       </c>
       <c r="G19">
-        <v>0.401023372561788</v>
+        <v>0.7677478836220075</v>
       </c>
       <c r="H19">
-        <v>0.3360903753135389</v>
+        <v>0.8602802347493537</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.170168597599142</v>
+        <v>0.4069331897224782</v>
       </c>
       <c r="K19">
-        <v>1.585624395501753</v>
+        <v>0.4960076064868417</v>
       </c>
       <c r="L19">
-        <v>0.2557554789341765</v>
+        <v>0.1140385193607756</v>
       </c>
       <c r="M19">
-        <v>0.2758768576460326</v>
+        <v>0.193198626006172</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.501707912841766</v>
+        <v>3.267854434661302</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.139469483204891</v>
+        <v>0.9832950298639389</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1395261169154907</v>
+        <v>0.2943446861085661</v>
       </c>
       <c r="E20">
-        <v>0.1138442355483802</v>
+        <v>0.3090190894623639</v>
       </c>
       <c r="F20">
-        <v>0.6836156596354783</v>
+        <v>1.472943222005526</v>
       </c>
       <c r="G20">
-        <v>0.4041098585261267</v>
+        <v>0.7664375198224604</v>
       </c>
       <c r="H20">
-        <v>0.3354051396021447</v>
+        <v>0.8583881244475293</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1681993271002362</v>
+        <v>0.405933697914227</v>
       </c>
       <c r="K20">
-        <v>1.64043212743394</v>
+        <v>0.5138569184570656</v>
       </c>
       <c r="L20">
-        <v>0.2657189031152285</v>
+        <v>0.1170421581121275</v>
       </c>
       <c r="M20">
-        <v>0.2862906945497841</v>
+        <v>0.1960719118793577</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.506943871059008</v>
+        <v>3.261201147485224</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.270772597475002</v>
+        <v>1.017093626573228</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1454412914608625</v>
+        <v>0.2944090540913891</v>
       </c>
       <c r="E21">
-        <v>0.1102346079286498</v>
+        <v>0.3065420602292539</v>
       </c>
       <c r="F21">
-        <v>0.6967917040452463</v>
+        <v>1.465327613254104</v>
       </c>
       <c r="G21">
-        <v>0.4157614105851479</v>
+        <v>0.7625450772574709</v>
       </c>
       <c r="H21">
-        <v>0.3338418448525005</v>
+        <v>0.8524121171229382</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1617691291849352</v>
+        <v>0.4026908498645883</v>
       </c>
       <c r="K21">
-        <v>1.824759266303488</v>
+        <v>0.5736567335193854</v>
       </c>
       <c r="L21">
-        <v>0.2992606699618108</v>
+        <v>0.1271374337779463</v>
       </c>
       <c r="M21">
-        <v>0.3214320371850476</v>
+        <v>0.2057785062309634</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.528789636916173</v>
+        <v>3.240716600063962</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.357278002559156</v>
+        <v>1.039443329149663</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1494407601242784</v>
+        <v>0.2945323038761387</v>
       </c>
       <c r="E22">
-        <v>0.1079954632617772</v>
+        <v>0.3049990384745698</v>
       </c>
       <c r="F22">
-        <v>0.7067255709623623</v>
+        <v>1.46093904289453</v>
       </c>
       <c r="G22">
-        <v>0.4243878055318504</v>
+        <v>0.7603813258043601</v>
       </c>
       <c r="H22">
-        <v>0.3333955065027681</v>
+        <v>0.8487901757608967</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1577072189182873</v>
+        <v>0.4006572096198528</v>
       </c>
       <c r="K22">
-        <v>1.945418296031249</v>
+        <v>0.6126075334467203</v>
       </c>
       <c r="L22">
-        <v>0.3212419867847984</v>
+        <v>0.1337370675456953</v>
       </c>
       <c r="M22">
-        <v>0.3445264680655882</v>
+        <v>0.2121607998864974</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.546408538598087</v>
+        <v>3.228721210778872</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.311041166552087</v>
+        <v>1.027491259314445</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1472936217336738</v>
+        <v>0.2944591182606189</v>
       </c>
       <c r="E23">
-        <v>0.1091794211657486</v>
+        <v>0.3058156478638709</v>
       </c>
       <c r="F23">
-        <v>0.7012984334399164</v>
+        <v>1.4632274916558</v>
       </c>
       <c r="G23">
-        <v>0.4196874546254321</v>
+        <v>0.7615013786724631</v>
       </c>
       <c r="H23">
-        <v>0.3335794514097188</v>
+        <v>0.8506973392669863</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1598621563050751</v>
+        <v>0.401734767967346</v>
       </c>
       <c r="K23">
-        <v>1.880999137208789</v>
+        <v>0.5918310822531794</v>
       </c>
       <c r="L23">
-        <v>0.3095039626319931</v>
+        <v>0.1302146060222498</v>
       </c>
       <c r="M23">
-        <v>0.3321879345230414</v>
+        <v>0.2087509832602734</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.536687923480798</v>
+        <v>3.234996030110295</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.137334195848837</v>
+        <v>0.9827470518326891</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1394316200985841</v>
+        <v>0.2943450097515736</v>
       </c>
       <c r="E24">
-        <v>0.1139052275641816</v>
+        <v>0.3090608583232966</v>
       </c>
       <c r="F24">
-        <v>0.6834217101670319</v>
+        <v>1.47307764420713</v>
       </c>
       <c r="G24">
-        <v>0.4039356820770337</v>
+        <v>0.7665075591662571</v>
       </c>
       <c r="H24">
-        <v>0.3354400499558778</v>
+        <v>0.8584905948891333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1683067735859369</v>
+        <v>0.405988150946726</v>
       </c>
       <c r="K24">
-        <v>1.63742180619542</v>
+        <v>0.5128773540569966</v>
       </c>
       <c r="L24">
-        <v>0.2651715371482624</v>
+        <v>0.1168771975824257</v>
       </c>
       <c r="M24">
-        <v>0.285718278063996</v>
+        <v>0.195913924167094</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.506640757152979</v>
+        <v>3.261559478289229</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9525456900376241</v>
+        <v>0.9356221077760267</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1314931968236621</v>
+        <v>0.2945728099504166</v>
       </c>
       <c r="E25">
-        <v>0.1195042740878982</v>
+        <v>0.3128881453681593</v>
       </c>
       <c r="F25">
-        <v>0.6694114023585271</v>
+        <v>1.486234990140375</v>
       </c>
       <c r="G25">
-        <v>0.3909296751423454</v>
+        <v>0.7735402753325289</v>
       </c>
       <c r="H25">
-        <v>0.3397615040812738</v>
+        <v>0.8681176699601778</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1780081472772608</v>
+        <v>0.4109455225704739</v>
       </c>
       <c r="K25">
-        <v>1.375148555472663</v>
+        <v>0.4271730568327143</v>
       </c>
       <c r="L25">
-        <v>0.2175414755069625</v>
+        <v>0.1025034032092265</v>
       </c>
       <c r="M25">
-        <v>0.2360517842380467</v>
+        <v>0.1822376534690022</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.487491153430568</v>
+        <v>3.296197103262173</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9019181025842329</v>
+        <v>0.818281449373842</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2950447304472732</v>
+        <v>0.1260802167706245</v>
       </c>
       <c r="E2">
-        <v>0.3159889265604434</v>
+        <v>0.1240447557587618</v>
       </c>
       <c r="F2">
-        <v>1.49810685513463</v>
+        <v>0.6632087131762461</v>
       </c>
       <c r="G2">
-        <v>0.780123361248485</v>
+        <v>0.384409694967772</v>
       </c>
       <c r="H2">
-        <v>0.8762598520114366</v>
+        <v>0.3447739866183639</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4149153750845276</v>
+        <v>0.1856506366177877</v>
       </c>
       <c r="K2">
-        <v>0.3636192724592604</v>
+        <v>1.182034826057844</v>
       </c>
       <c r="L2">
-        <v>0.09193412346857599</v>
+        <v>0.18255846893301</v>
       </c>
       <c r="M2">
-        <v>0.1723180485962175</v>
+        <v>0.1997775796956383</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.326857037664681</v>
+        <v>1.483674737255043</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8797045962019183</v>
+        <v>0.7282135938447425</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2955555724836358</v>
+        <v>0.1226654353389094</v>
       </c>
       <c r="E3">
-        <v>0.3182675989860906</v>
+        <v>0.1273762574484802</v>
       </c>
       <c r="F3">
-        <v>1.507518249656592</v>
+        <v>0.6613751652187574</v>
       </c>
       <c r="G3">
-        <v>0.7854615810608649</v>
+        <v>0.3817257857425744</v>
       </c>
       <c r="H3">
-        <v>0.8824372293548208</v>
+        <v>0.3492389300768934</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4178062770101558</v>
+        <v>0.1911367930791075</v>
       </c>
       <c r="K3">
-        <v>0.3202758800964034</v>
+        <v>1.050976756688783</v>
       </c>
       <c r="L3">
-        <v>0.08478178247589341</v>
+        <v>0.1588698461067608</v>
       </c>
       <c r="M3">
-        <v>0.1656910795737474</v>
+        <v>0.1753329534867589</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.350857000625552</v>
+        <v>1.486983647716968</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.866378320305472</v>
+        <v>0.6733083395965025</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2959638960239417</v>
+        <v>0.1206889630317036</v>
       </c>
       <c r="E4">
-        <v>0.3197544185701204</v>
+        <v>0.1295452714310699</v>
       </c>
       <c r="F4">
-        <v>1.513971668206437</v>
+        <v>0.6613576611384104</v>
       </c>
       <c r="G4">
-        <v>0.7891719310338559</v>
+        <v>0.3808802441394263</v>
       </c>
       <c r="H4">
-        <v>0.8865560561696668</v>
+        <v>0.3524842347952557</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4196805312810259</v>
+        <v>0.1946551110407411</v>
       </c>
       <c r="K4">
-        <v>0.2935319630387028</v>
+        <v>0.9703626984715754</v>
       </c>
       <c r="L4">
-        <v>0.08039613549231461</v>
+        <v>0.1443244152014458</v>
       </c>
       <c r="M4">
-        <v>0.1616700459861136</v>
+        <v>0.1603786633760294</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.367183790651126</v>
+        <v>1.491762113335028</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8610270484147122</v>
+        <v>0.6510258553971937</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2961541678882682</v>
+        <v>0.1199130895854523</v>
       </c>
       <c r="E5">
-        <v>0.3203824022191943</v>
+        <v>0.1304599105484208</v>
       </c>
       <c r="F5">
-        <v>1.516771350658146</v>
+        <v>0.6616206340389823</v>
       </c>
       <c r="G5">
-        <v>0.7907927616175883</v>
+        <v>0.3807299151322141</v>
       </c>
       <c r="H5">
-        <v>0.8883165577976584</v>
+        <v>0.3539301550848393</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4204693016269978</v>
+        <v>0.1961262901466654</v>
       </c>
       <c r="K5">
-        <v>0.2826014131433965</v>
+        <v>0.9374687526180878</v>
       </c>
       <c r="L5">
-        <v>0.07861058082998795</v>
+        <v>0.1383955795445857</v>
       </c>
       <c r="M5">
-        <v>0.1600436546131903</v>
+        <v>0.1542966467302449</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.374237365397263</v>
+        <v>1.494377281001448</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8601432809236371</v>
+        <v>0.6473311896709788</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2961872066136948</v>
+        <v>0.1197860222420815</v>
       </c>
       <c r="E6">
-        <v>0.3204880138910475</v>
+        <v>0.1306136343126649</v>
       </c>
       <c r="F6">
-        <v>1.517246500386598</v>
+        <v>0.6616803698321974</v>
       </c>
       <c r="G6">
-        <v>0.7910684736088029</v>
+        <v>0.3807164702347663</v>
       </c>
       <c r="H6">
-        <v>0.8886138460258408</v>
+        <v>0.3541776114929576</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4206017873839381</v>
+        <v>0.1963728327615364</v>
       </c>
       <c r="K6">
-        <v>0.2807844811798645</v>
+        <v>0.9320039443401811</v>
       </c>
       <c r="L6">
-        <v>0.0783141936460936</v>
+        <v>0.1374109759114148</v>
       </c>
       <c r="M6">
-        <v>0.1597743357182644</v>
+        <v>0.1532874050538489</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.375432789880577</v>
+        <v>1.494851218923458</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8663058293124948</v>
+        <v>0.6730074684920169</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2959663653242757</v>
+        <v>0.1206783805346774</v>
       </c>
       <c r="E7">
-        <v>0.3197627982738984</v>
+        <v>0.1295574824590888</v>
       </c>
       <c r="F7">
-        <v>1.514008737696571</v>
+        <v>0.6613601251205594</v>
       </c>
       <c r="G7">
-        <v>0.7891933494135301</v>
+        <v>0.3808774400170876</v>
       </c>
       <c r="H7">
-        <v>0.8865794665779703</v>
+        <v>0.3525032394078949</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4196910676443384</v>
+        <v>0.1946748005977303</v>
       </c>
       <c r="K7">
-        <v>0.2933846791738688</v>
+        <v>0.9699192623575073</v>
       </c>
       <c r="L7">
-        <v>0.08037204807855147</v>
+        <v>0.1442444644311678</v>
       </c>
       <c r="M7">
-        <v>0.1616480622502614</v>
+        <v>0.1602965929890274</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.367277296560346</v>
+        <v>1.491794707501967</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8941942993738792</v>
+        <v>0.7871387863893062</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2952012643208235</v>
+        <v>0.1248774332703135</v>
       </c>
       <c r="E8">
-        <v>0.3167564327122987</v>
+        <v>0.125167652940358</v>
       </c>
       <c r="F8">
-        <v>1.501211961057926</v>
+        <v>0.6623411984575256</v>
       </c>
       <c r="G8">
-        <v>0.7818742020421396</v>
+        <v>0.3833131143730384</v>
       </c>
       <c r="H8">
-        <v>0.8783222316777781</v>
+        <v>0.346206930699914</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4158915901488367</v>
+        <v>0.1875110321295343</v>
       </c>
       <c r="K8">
-        <v>0.3487020626762956</v>
+        <v>1.136871547782476</v>
       </c>
       <c r="L8">
-        <v>0.08946685155007117</v>
+        <v>0.1743899116159184</v>
       </c>
       <c r="M8">
-        <v>0.1700232074918837</v>
+        <v>0.1913365739842945</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.334802237024178</v>
+        <v>1.484231532419301</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.951342859104841</v>
+        <v>1.014485964234211</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.294448987035075</v>
+        <v>0.1340979573221119</v>
       </c>
       <c r="E9">
-        <v>0.3115551057863071</v>
+        <v>0.1175524350965</v>
       </c>
       <c r="F9">
-        <v>1.481464051879975</v>
+        <v>0.6734647461672978</v>
       </c>
       <c r="G9">
-        <v>0.7709531031455157</v>
+        <v>0.3948121636274564</v>
       </c>
       <c r="H9">
-        <v>0.8647113359931495</v>
+        <v>0.338011167679511</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4092260884239867</v>
+        <v>0.1746619865594559</v>
       </c>
       <c r="K9">
-        <v>0.4561136586841883</v>
+        <v>1.463470712338136</v>
       </c>
       <c r="L9">
-        <v>0.107343277193678</v>
+        <v>0.2335674156322369</v>
       </c>
       <c r="M9">
-        <v>0.1868214497294893</v>
+        <v>0.2527298627449781</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.283729004185773</v>
+        <v>1.492272196606677</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9948027389778247</v>
+        <v>1.184258121365446</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2943484805699939</v>
+        <v>0.1415212269502533</v>
       </c>
       <c r="E10">
-        <v>0.3081543913434563</v>
+        <v>0.1125824088307503</v>
       </c>
       <c r="F10">
-        <v>1.470205079164494</v>
+        <v>0.6878381379032774</v>
       </c>
       <c r="G10">
-        <v>0.7650203041600321</v>
+        <v>0.4078791767162784</v>
       </c>
       <c r="H10">
-        <v>0.8562794270650329</v>
+        <v>0.33474498350364</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.404804704786919</v>
+        <v>0.1659675728488095</v>
       </c>
       <c r="K10">
-        <v>0.5343504363836757</v>
+        <v>1.703477974667834</v>
       </c>
       <c r="L10">
-        <v>0.1204964295988304</v>
+        <v>0.2771857066027792</v>
       </c>
       <c r="M10">
-        <v>0.199384946888884</v>
+        <v>0.2982902519440529</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.253878987043123</v>
+        <v>1.513697230334287</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.014888281255082</v>
+        <v>1.262225342660258</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.294400143990643</v>
+        <v>0.1450503166034807</v>
       </c>
       <c r="E11">
-        <v>0.3066981432947387</v>
+        <v>0.1104615601401502</v>
       </c>
       <c r="F11">
-        <v>1.465786767690886</v>
+        <v>0.6958621883674141</v>
       </c>
       <c r="G11">
-        <v>0.762775141620466</v>
+        <v>0.4149486544286844</v>
       </c>
       <c r="H11">
-        <v>0.8527828088493123</v>
+        <v>0.3339101318956352</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4028959801192258</v>
+        <v>0.1621776397567958</v>
       </c>
       <c r="K11">
-        <v>0.5697893885626399</v>
+        <v>1.812805210599038</v>
       </c>
       <c r="L11">
-        <v>0.1264831533836173</v>
+        <v>0.2970839495715438</v>
       </c>
       <c r="M11">
-        <v>0.205147272631848</v>
+        <v>0.3191477930327196</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.241962791590538</v>
+        <v>1.527182946104489</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.022538959998201</v>
+        <v>1.291867410971946</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.294433641149773</v>
+        <v>0.1464095385114277</v>
       </c>
       <c r="E12">
-        <v>0.3061597111347885</v>
+        <v>0.1096789858071352</v>
       </c>
       <c r="F12">
-        <v>1.46421465496725</v>
+        <v>0.6991265596000886</v>
       </c>
       <c r="G12">
-        <v>0.7619901741382904</v>
+        <v>0.4177982955187645</v>
       </c>
       <c r="H12">
-        <v>0.8515073983572279</v>
+        <v>0.3336922926454662</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4021879016942691</v>
+        <v>0.1607665662737956</v>
       </c>
       <c r="K12">
-        <v>0.5831867950992091</v>
+        <v>1.854236814838771</v>
       </c>
       <c r="L12">
-        <v>0.128750514637801</v>
+        <v>0.3046290682620594</v>
       </c>
       <c r="M12">
-        <v>0.2073359538650621</v>
+        <v>0.3270677354302052</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.237689294514354</v>
+        <v>1.532860104065719</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.020889270666117</v>
+        <v>1.285478039541943</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2944258083682598</v>
+        <v>0.1461157746795436</v>
       </c>
       <c r="E13">
-        <v>0.3062750937059988</v>
+        <v>0.1098466067487278</v>
       </c>
       <c r="F13">
-        <v>1.46454874769136</v>
+        <v>0.6984132722242435</v>
       </c>
       <c r="G13">
-        <v>0.7621563301852348</v>
+        <v>0.4171767199522236</v>
       </c>
       <c r="H13">
-        <v>0.8517799168976268</v>
+        <v>0.3337347583843524</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4023397452268362</v>
+        <v>0.1610693891459274</v>
       </c>
       <c r="K13">
-        <v>0.5803024396256546</v>
+        <v>1.84531218737493</v>
       </c>
       <c r="L13">
-        <v>0.1282621860889606</v>
+        <v>0.3030036095969137</v>
       </c>
       <c r="M13">
-        <v>0.2068642906607323</v>
+        <v>0.3253610269361431</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.238599046144117</v>
+        <v>1.53161151522005</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.015516814599948</v>
+        <v>1.264661588065763</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2944026209798878</v>
+        <v>0.1451616774173772</v>
       </c>
       <c r="E14">
-        <v>0.3066535854574468</v>
+        <v>0.1103967631221128</v>
       </c>
       <c r="F14">
-        <v>1.465655405579682</v>
+        <v>0.6961261514235986</v>
       </c>
       <c r="G14">
-        <v>0.7627092547148209</v>
+        <v>0.4151795732055916</v>
       </c>
       <c r="H14">
-        <v>0.8526769048345528</v>
+        <v>0.3338902121012808</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4028374313999583</v>
+        <v>0.1620610650609073</v>
       </c>
       <c r="K14">
-        <v>0.5708920578314576</v>
+        <v>1.816213113449322</v>
       </c>
       <c r="L14">
-        <v>0.1266696850483555</v>
+        <v>0.2977044767805381</v>
       </c>
       <c r="M14">
-        <v>0.2053272051438668</v>
+        <v>0.3197989217003254</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.241606421447244</v>
+        <v>1.527638382996315</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.012231835052916</v>
+        <v>1.251926578715569</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2943902304793156</v>
+        <v>0.1445802676598902</v>
       </c>
       <c r="E15">
-        <v>0.3068871168552825</v>
+        <v>0.110736437781962</v>
       </c>
       <c r="F15">
-        <v>1.46634641499935</v>
+        <v>0.6947550097765713</v>
       </c>
       <c r="G15">
-        <v>0.7630564309774286</v>
+        <v>0.4139790696965235</v>
       </c>
       <c r="H15">
-        <v>0.8532326734571285</v>
+        <v>0.3339983779806914</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4031441936683819</v>
+        <v>0.1626716429743782</v>
       </c>
       <c r="K15">
-        <v>0.5651249664263105</v>
+        <v>1.798393555020994</v>
       </c>
       <c r="L15">
-        <v>0.1256942691425991</v>
+        <v>0.2944599809437278</v>
       </c>
       <c r="M15">
-        <v>0.2043865523156398</v>
+        <v>0.3163948728891768</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.243479632792287</v>
+        <v>1.525280013625746</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9934963941563524</v>
+        <v>1.179178584920038</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2943470578438934</v>
+        <v>0.1412937350557044</v>
       </c>
       <c r="E16">
-        <v>0.3082513839607133</v>
+        <v>0.1127238636382675</v>
       </c>
       <c r="F16">
-        <v>1.470507968682583</v>
+        <v>0.6873446681104056</v>
       </c>
       <c r="G16">
-        <v>0.7651761591605606</v>
+        <v>0.4074407185964475</v>
       </c>
       <c r="H16">
-        <v>0.8565147560647546</v>
+        <v>0.3348130366210569</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.404931505497709</v>
+        <v>0.1662186064692346</v>
       </c>
       <c r="K16">
-        <v>0.5320313042271607</v>
+        <v>1.696337028382658</v>
       </c>
       <c r="L16">
-        <v>0.1201052361214039</v>
+        <v>0.2758866075318593</v>
       </c>
       <c r="M16">
-        <v>0.1990092997081661</v>
+        <v>0.2969300415225788</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.254691180492784</v>
+        <v>1.512893902257559</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9820831417023328</v>
+        <v>1.134746832337669</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2943454651641417</v>
+        <v>0.1393171939962983</v>
       </c>
       <c r="E17">
-        <v>0.3091115384216545</v>
+        <v>0.1139792366106533</v>
       </c>
       <c r="F17">
-        <v>1.473241011656476</v>
+        <v>0.6831876113258346</v>
       </c>
       <c r="G17">
-        <v>0.7665927366237639</v>
+        <v>0.4037253141701882</v>
       </c>
       <c r="H17">
-        <v>0.8586150025407733</v>
+        <v>0.3354827783153809</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4060542111400656</v>
+        <v>0.1684370988883765</v>
       </c>
       <c r="K17">
-        <v>0.5116900857727558</v>
+        <v>1.633773574335208</v>
       </c>
       <c r="L17">
-        <v>0.1166772779876055</v>
+        <v>0.2645081990495868</v>
       </c>
       <c r="M17">
-        <v>0.1957224836184395</v>
+        <v>0.2850246290771565</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.261994830899368</v>
+        <v>1.506275806744185</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9755482681241858</v>
+        <v>1.109259497946994</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2943537195734578</v>
+        <v>0.1381946067438165</v>
       </c>
       <c r="E18">
-        <v>0.3096148206733362</v>
+        <v>0.1147144497719541</v>
       </c>
       <c r="F18">
-        <v>1.474879206860209</v>
+        <v>0.6809356332528864</v>
       </c>
       <c r="G18">
-        <v>0.7674502195709962</v>
+        <v>0.4016935407710633</v>
       </c>
       <c r="H18">
-        <v>0.8598549311235644</v>
+        <v>0.3359289690284726</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4067096197222666</v>
+        <v>0.1697286451950131</v>
       </c>
       <c r="K18">
-        <v>0.4999761562296214</v>
+        <v>1.597801857992465</v>
       </c>
       <c r="L18">
-        <v>0.1147059258708651</v>
+        <v>0.2579687868287408</v>
       </c>
       <c r="M18">
-        <v>0.1938364395822418</v>
+        <v>0.2781891943127661</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.266352212643554</v>
+        <v>1.502819147612939</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.973340797371435</v>
+        <v>1.100641371201192</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2943580915590047</v>
+        <v>0.1378169403757354</v>
       </c>
       <c r="E19">
-        <v>0.3097866918698902</v>
+        <v>0.1149656277484405</v>
       </c>
       <c r="F19">
-        <v>1.475445249708507</v>
+        <v>0.6801966736355993</v>
       </c>
       <c r="G19">
-        <v>0.7677478836220075</v>
+        <v>0.4010233725617738</v>
       </c>
       <c r="H19">
-        <v>0.8602802347493537</v>
+        <v>0.3360903753134394</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4069331897224782</v>
+        <v>0.1701685975991909</v>
       </c>
       <c r="K19">
-        <v>0.4960076064868417</v>
+        <v>1.585624395501839</v>
       </c>
       <c r="L19">
-        <v>0.1140385193607756</v>
+        <v>0.2557554789341481</v>
       </c>
       <c r="M19">
-        <v>0.193198626006172</v>
+        <v>0.2758768576460326</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.267854434661302</v>
+        <v>1.501707912841738</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9832950298639389</v>
+        <v>1.139469483204863</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2943446861085661</v>
+        <v>0.1395261169153699</v>
       </c>
       <c r="E20">
-        <v>0.3090190894623639</v>
+        <v>0.1138442355483518</v>
       </c>
       <c r="F20">
-        <v>1.472943222005526</v>
+        <v>0.6836156596354641</v>
       </c>
       <c r="G20">
-        <v>0.7664375198224604</v>
+        <v>0.4041098585261267</v>
       </c>
       <c r="H20">
-        <v>0.8583881244475293</v>
+        <v>0.3354051396022584</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.405933697914227</v>
+        <v>0.1681993271002318</v>
       </c>
       <c r="K20">
-        <v>0.5138569184570656</v>
+        <v>1.640432127433911</v>
       </c>
       <c r="L20">
-        <v>0.1170421581121275</v>
+        <v>0.2657189031151432</v>
       </c>
       <c r="M20">
-        <v>0.1960719118793577</v>
+        <v>0.2862906945498054</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.261201147485224</v>
+        <v>1.506943871058979</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.017093626573228</v>
+        <v>1.270772597475002</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2944090540913891</v>
+        <v>0.1454412914609904</v>
       </c>
       <c r="E21">
-        <v>0.3065420602292539</v>
+        <v>0.1102346079286649</v>
       </c>
       <c r="F21">
-        <v>1.465327613254104</v>
+        <v>0.6967917040452392</v>
       </c>
       <c r="G21">
-        <v>0.7625450772574709</v>
+        <v>0.4157614105852048</v>
       </c>
       <c r="H21">
-        <v>0.8524121171229382</v>
+        <v>0.3338418448524862</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4026908498645883</v>
+        <v>0.1617691291849574</v>
       </c>
       <c r="K21">
-        <v>0.5736567335193854</v>
+        <v>1.824759266303289</v>
       </c>
       <c r="L21">
-        <v>0.1271374337779463</v>
+        <v>0.2992606699618534</v>
       </c>
       <c r="M21">
-        <v>0.2057785062309634</v>
+        <v>0.3214320371850548</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.240716600063962</v>
+        <v>1.528789636916088</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.039443329149663</v>
+        <v>1.357278002559042</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2945323038761387</v>
+        <v>0.1494407601241221</v>
       </c>
       <c r="E22">
-        <v>0.3049990384745698</v>
+        <v>0.1079954632617834</v>
       </c>
       <c r="F22">
-        <v>1.46093904289453</v>
+        <v>0.7067255709623339</v>
       </c>
       <c r="G22">
-        <v>0.7603813258043601</v>
+        <v>0.4243878055317367</v>
       </c>
       <c r="H22">
-        <v>0.8487901757608967</v>
+        <v>0.3333955065027681</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4006572096198528</v>
+        <v>0.1577072189182829</v>
       </c>
       <c r="K22">
-        <v>0.6126075334467203</v>
+        <v>1.945418296031477</v>
       </c>
       <c r="L22">
-        <v>0.1337370675456953</v>
+        <v>0.321241986784699</v>
       </c>
       <c r="M22">
-        <v>0.2121607998864974</v>
+        <v>0.3445264680655953</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.228721210778872</v>
+        <v>1.546408538598143</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.027491259314445</v>
+        <v>1.311041166551973</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2944591182606189</v>
+        <v>0.1472936217337022</v>
       </c>
       <c r="E23">
-        <v>0.3058156478638709</v>
+        <v>0.1091794211657247</v>
       </c>
       <c r="F23">
-        <v>1.4632274916558</v>
+        <v>0.7012984334399093</v>
       </c>
       <c r="G23">
-        <v>0.7615013786724631</v>
+        <v>0.4196874546254179</v>
       </c>
       <c r="H23">
-        <v>0.8506973392669863</v>
+        <v>0.3335794514097188</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.401734767967346</v>
+        <v>0.1598621563051168</v>
       </c>
       <c r="K23">
-        <v>0.5918310822531794</v>
+        <v>1.880999137208875</v>
       </c>
       <c r="L23">
-        <v>0.1302146060222498</v>
+        <v>0.3095039626319505</v>
       </c>
       <c r="M23">
-        <v>0.2087509832602734</v>
+        <v>0.3321879345230343</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.234996030110295</v>
+        <v>1.53668792348077</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9827470518326891</v>
+        <v>1.137334195848837</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2943450097515736</v>
+        <v>0.1394316200985841</v>
       </c>
       <c r="E24">
-        <v>0.3090608583232966</v>
+        <v>0.1139052275641674</v>
       </c>
       <c r="F24">
-        <v>1.47307764420713</v>
+        <v>0.6834217101670461</v>
       </c>
       <c r="G24">
-        <v>0.7665075591662571</v>
+        <v>0.4039356820770195</v>
       </c>
       <c r="H24">
-        <v>0.8584905948891333</v>
+        <v>0.3354400499559915</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.405988150946726</v>
+        <v>0.1683067735859742</v>
       </c>
       <c r="K24">
-        <v>0.5128773540569966</v>
+        <v>1.637421806195448</v>
       </c>
       <c r="L24">
-        <v>0.1168771975824257</v>
+        <v>0.2651715371482908</v>
       </c>
       <c r="M24">
-        <v>0.195913924167094</v>
+        <v>0.2857182780639747</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.261559478289229</v>
+        <v>1.506640757153008</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9356221077760267</v>
+        <v>0.9525456900377378</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2945728099504166</v>
+        <v>0.1314931968237829</v>
       </c>
       <c r="E25">
-        <v>0.3128881453681593</v>
+        <v>0.1195042740878982</v>
       </c>
       <c r="F25">
-        <v>1.486234990140375</v>
+        <v>0.6694114023585271</v>
       </c>
       <c r="G25">
-        <v>0.7735402753325289</v>
+        <v>0.3909296751423312</v>
       </c>
       <c r="H25">
-        <v>0.8681176699601778</v>
+        <v>0.3397615040812738</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4109455225704739</v>
+        <v>0.1780081472772421</v>
       </c>
       <c r="K25">
-        <v>0.4271730568327143</v>
+        <v>1.375148555472776</v>
       </c>
       <c r="L25">
-        <v>0.1025034032092265</v>
+        <v>0.2175414755070193</v>
       </c>
       <c r="M25">
-        <v>0.1822376534690022</v>
+        <v>0.2360517842380396</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.296197103262173</v>
+        <v>1.487491153430568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.818281449373842</v>
+        <v>1.32154877306067</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1260802167706245</v>
+        <v>0.02623642715827401</v>
       </c>
       <c r="E2">
-        <v>0.1240447557587618</v>
+        <v>0.2156738157246174</v>
       </c>
       <c r="F2">
-        <v>0.6632087131762461</v>
+        <v>0.5621483439762116</v>
       </c>
       <c r="G2">
-        <v>0.384409694967772</v>
+        <v>0.48066735643242</v>
       </c>
       <c r="H2">
-        <v>0.3447739866183639</v>
+        <v>0.01195791203045102</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.009955380914250078</v>
       </c>
       <c r="J2">
-        <v>0.1856506366177877</v>
+        <v>0.2662231192175994</v>
       </c>
       <c r="K2">
-        <v>1.182034826057844</v>
+        <v>2.8512514151695</v>
       </c>
       <c r="L2">
-        <v>0.18255846893301</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1997775796956383</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.483674737255043</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>4.217898682599412</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.529925413200374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7282135938447425</v>
+        <v>1.151541416251462</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1226654353389094</v>
+        <v>0.02285403559657695</v>
       </c>
       <c r="E3">
-        <v>0.1273762574484802</v>
+        <v>0.2072391539121661</v>
       </c>
       <c r="F3">
-        <v>0.6613751652187574</v>
+        <v>0.4920152349470399</v>
       </c>
       <c r="G3">
-        <v>0.3817257857425744</v>
+        <v>0.417117055734991</v>
       </c>
       <c r="H3">
-        <v>0.3492389300768934</v>
+        <v>0.008441220449626641</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01171840652356027</v>
       </c>
       <c r="J3">
-        <v>0.1911367930791075</v>
+        <v>0.2407069786080456</v>
       </c>
       <c r="K3">
-        <v>1.050976756688783</v>
+        <v>2.521388739030911</v>
       </c>
       <c r="L3">
-        <v>0.1588698461067608</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1753329534867589</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.486983647716968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>3.680367983914792</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.341456017114069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6733083395965025</v>
+        <v>1.046656731614434</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1206889630317036</v>
+        <v>0.02078009759256716</v>
       </c>
       <c r="E4">
-        <v>0.1295452714310699</v>
+        <v>0.2020256262674991</v>
       </c>
       <c r="F4">
-        <v>0.6613576611384104</v>
+        <v>0.4495990820006881</v>
       </c>
       <c r="G4">
-        <v>0.3808802441394263</v>
+        <v>0.3786529622302197</v>
       </c>
       <c r="H4">
-        <v>0.3524842347952557</v>
+        <v>0.006540467933733585</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01292044440036255</v>
       </c>
       <c r="J4">
-        <v>0.1946551110407411</v>
+        <v>0.2254093961592787</v>
       </c>
       <c r="K4">
-        <v>0.9703626984715754</v>
+        <v>2.322219465249276</v>
       </c>
       <c r="L4">
-        <v>0.1443244152014458</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1603786633760294</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.491762113335028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>3.35144859409975</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.22767722492398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6510258553971937</v>
+        <v>1.002966284161118</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1199130895854523</v>
+        <v>0.01995049852789776</v>
       </c>
       <c r="E5">
-        <v>0.1304599105484208</v>
+        <v>0.2002575541714542</v>
       </c>
       <c r="F5">
-        <v>0.6616206340389823</v>
+        <v>0.4322761699454674</v>
       </c>
       <c r="G5">
-        <v>0.3807299151322141</v>
+        <v>0.3629084867991281</v>
       </c>
       <c r="H5">
-        <v>0.3539301550848393</v>
+        <v>0.005830580482949155</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01351781627570192</v>
       </c>
       <c r="J5">
-        <v>0.1961262901466654</v>
+        <v>0.2191564475267853</v>
       </c>
       <c r="K5">
-        <v>0.9374687526180878</v>
+        <v>2.248760902739448</v>
       </c>
       <c r="L5">
-        <v>0.1383955795445857</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1542966467302449</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.494377281001448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>3.22207944790425</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.181120749973758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6473311896709788</v>
+        <v>0.9947016757503775</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1197860222420815</v>
+        <v>0.01983106575070082</v>
       </c>
       <c r="E6">
-        <v>0.1306136343126649</v>
+        <v>0.2004092366936057</v>
       </c>
       <c r="F6">
-        <v>0.6616803698321974</v>
+        <v>0.429183273539202</v>
       </c>
       <c r="G6">
-        <v>0.3807164702347663</v>
+        <v>0.3600642727374179</v>
       </c>
       <c r="H6">
-        <v>0.3541776114929576</v>
+        <v>0.005723279094766304</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01372289659569148</v>
       </c>
       <c r="J6">
-        <v>0.1963728327615364</v>
+        <v>0.217995204425165</v>
       </c>
       <c r="K6">
-        <v>0.9320039443401811</v>
+        <v>2.245080723322914</v>
       </c>
       <c r="L6">
-        <v>0.1374109759114148</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1532874050538489</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.494851218923458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>3.206026865294305</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.172645547143532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6730074684920169</v>
+        <v>1.043326204396578</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1206783805346774</v>
+        <v>0.02081884137091095</v>
       </c>
       <c r="E7">
-        <v>0.1295574824590888</v>
+        <v>0.2032187157562966</v>
       </c>
       <c r="F7">
-        <v>0.6613601251205594</v>
+        <v>0.448752137899433</v>
       </c>
       <c r="G7">
-        <v>0.3808774400170876</v>
+        <v>0.3777941645585514</v>
       </c>
       <c r="H7">
-        <v>0.3525032394078949</v>
+        <v>0.006552060772076804</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01319720490857801</v>
       </c>
       <c r="J7">
-        <v>0.1946748005977303</v>
+        <v>0.224976393811275</v>
       </c>
       <c r="K7">
-        <v>0.9699192623575073</v>
+        <v>2.344421086612513</v>
       </c>
       <c r="L7">
-        <v>0.1442444644311678</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1602965929890274</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.491794707501967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>3.364522232892156</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.224949743240586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7871387863893062</v>
+        <v>1.259383964796797</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1248774332703135</v>
+        <v>0.0251355297742677</v>
       </c>
       <c r="E8">
-        <v>0.125167652940358</v>
+        <v>0.2143926862696155</v>
       </c>
       <c r="F8">
-        <v>0.6623411984575256</v>
+        <v>0.5370172758871163</v>
       </c>
       <c r="G8">
-        <v>0.3833131143730384</v>
+        <v>0.4577803096862851</v>
       </c>
       <c r="H8">
-        <v>0.346206930699914</v>
+        <v>0.01072487105738459</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0108612715515779</v>
       </c>
       <c r="J8">
-        <v>0.1875110321295343</v>
+        <v>0.2568877011489832</v>
       </c>
       <c r="K8">
-        <v>1.136871547782476</v>
+        <v>2.767845701215393</v>
       </c>
       <c r="L8">
-        <v>0.1743899116159184</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1913365739842945</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.484231532419301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>4.052070150316013</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.461752444685374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.014485964234211</v>
+        <v>1.684324408493325</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1340979573221119</v>
+        <v>0.03353941488983736</v>
       </c>
       <c r="E9">
-        <v>0.1175524350965</v>
+        <v>0.2336823342570966</v>
       </c>
       <c r="F9">
-        <v>0.6734647461672978</v>
+        <v>0.7171177827348743</v>
       </c>
       <c r="G9">
-        <v>0.3948121636274564</v>
+        <v>0.6209736065152924</v>
       </c>
       <c r="H9">
-        <v>0.338011167679511</v>
+        <v>0.02119689529205077</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.006910714496613402</v>
       </c>
       <c r="J9">
-        <v>0.1746619865594559</v>
+        <v>0.3233683502024576</v>
       </c>
       <c r="K9">
-        <v>1.463470712338136</v>
+        <v>3.584876533529439</v>
       </c>
       <c r="L9">
-        <v>0.2335674156322369</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2527298627449781</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.492272196606677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>5.384192993387074</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.947653743851873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.184258121365446</v>
+        <v>2.005125964742604</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1415212269502533</v>
+        <v>0.04044078325181744</v>
       </c>
       <c r="E10">
-        <v>0.1125824088307503</v>
+        <v>0.2682138125245217</v>
       </c>
       <c r="F10">
-        <v>0.6878381379032774</v>
+        <v>0.8458752135818202</v>
       </c>
       <c r="G10">
-        <v>0.4078791767162784</v>
+        <v>0.7362310590147274</v>
       </c>
       <c r="H10">
-        <v>0.33474498350364</v>
+        <v>0.03032705160106985</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004901579005458068</v>
       </c>
       <c r="J10">
-        <v>0.1659675728488095</v>
+        <v>0.37022635002252</v>
       </c>
       <c r="K10">
-        <v>1.703477974667834</v>
+        <v>4.260489790659733</v>
       </c>
       <c r="L10">
-        <v>0.2771857066027792</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2982902519440529</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.513697230334287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>6.315046673270615</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2.290605413040993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.262225342660258</v>
+        <v>2.252408444164132</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1450503166034807</v>
+        <v>0.04993511804449469</v>
       </c>
       <c r="E11">
-        <v>0.1104615601401502</v>
+        <v>0.5319816066057257</v>
       </c>
       <c r="F11">
-        <v>0.6958621883674141</v>
+        <v>0.8351464533714505</v>
       </c>
       <c r="G11">
-        <v>0.4149486544286844</v>
+        <v>0.7147425959291667</v>
       </c>
       <c r="H11">
-        <v>0.3339101318956352</v>
+        <v>0.04883770746504723</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004509490203911781</v>
       </c>
       <c r="J11">
-        <v>0.1621776397567958</v>
+        <v>0.3541958947118644</v>
       </c>
       <c r="K11">
-        <v>1.812805210599038</v>
+        <v>5.004572035575819</v>
       </c>
       <c r="L11">
-        <v>0.2970839495715438</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3191477930327196</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.527182946104489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>6.205773415420566</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2.211734262828458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.291867410971946</v>
+        <v>2.403766155290668</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1464095385114277</v>
+        <v>0.05692782982102784</v>
       </c>
       <c r="E12">
-        <v>0.1096789858071352</v>
+        <v>0.8387646311938397</v>
       </c>
       <c r="F12">
-        <v>0.6991265596000886</v>
+        <v>0.7999042673983183</v>
       </c>
       <c r="G12">
-        <v>0.4177982955187645</v>
+        <v>0.6742006998798615</v>
       </c>
       <c r="H12">
-        <v>0.3336922926454662</v>
+        <v>0.0864930056384523</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004106389269510125</v>
       </c>
       <c r="J12">
-        <v>0.1607665662737956</v>
+        <v>0.3314353061933701</v>
       </c>
       <c r="K12">
-        <v>1.854236814838771</v>
+        <v>5.474918921685372</v>
       </c>
       <c r="L12">
-        <v>0.3046290682620594</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3270677354302052</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.532860104065719</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>5.893111604033322</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>2.078248610840433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.285478039541943</v>
+        <v>2.484197002207509</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1461157746795436</v>
+        <v>0.06240044639874043</v>
       </c>
       <c r="E13">
-        <v>0.1098466067487278</v>
+        <v>1.194224267481175</v>
       </c>
       <c r="F13">
-        <v>0.6984132722242435</v>
+        <v>0.7426578000586659</v>
       </c>
       <c r="G13">
-        <v>0.4171767199522236</v>
+        <v>0.6155856879285153</v>
       </c>
       <c r="H13">
-        <v>0.3337347583843524</v>
+        <v>0.1403862264216116</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003995150041286699</v>
       </c>
       <c r="J13">
-        <v>0.1610693891459274</v>
+        <v>0.3015784680881808</v>
       </c>
       <c r="K13">
-        <v>1.84531218737493</v>
+        <v>5.793839167708313</v>
       </c>
       <c r="L13">
-        <v>0.3030036095969137</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3253610269361431</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.53161151522005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>5.432215241940128</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.891497853632472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.264661588065763</v>
+        <v>2.507397114776438</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1451616774173772</v>
+        <v>0.06558028101007096</v>
       </c>
       <c r="E14">
-        <v>0.1103967631221128</v>
+        <v>1.475315806457857</v>
       </c>
       <c r="F14">
-        <v>0.6961261514235986</v>
+        <v>0.6928933438667997</v>
       </c>
       <c r="G14">
-        <v>0.4151795732055916</v>
+        <v>0.5667690081134111</v>
       </c>
       <c r="H14">
-        <v>0.3338902121012808</v>
+        <v>0.1881765340287558</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.004120953037076269</v>
       </c>
       <c r="J14">
-        <v>0.1620610650609073</v>
+        <v>0.2776058740151086</v>
       </c>
       <c r="K14">
-        <v>1.816213113449322</v>
+        <v>5.957349602698912</v>
       </c>
       <c r="L14">
-        <v>0.2977044767805381</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3197989217003254</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.527638382996315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>5.050100462505156</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.737790442190089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.251926578715569</v>
+        <v>2.495638164752336</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1445802676598902</v>
+        <v>0.06597553404669299</v>
       </c>
       <c r="E15">
-        <v>0.110736437781962</v>
+        <v>1.542913965113286</v>
       </c>
       <c r="F15">
-        <v>0.6947550097765713</v>
+        <v>0.6759259304355112</v>
       </c>
       <c r="G15">
-        <v>0.4139790696965235</v>
+        <v>0.5507629514476662</v>
       </c>
       <c r="H15">
-        <v>0.3339983779806914</v>
+        <v>0.1999974958199005</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00433312367891503</v>
       </c>
       <c r="J15">
-        <v>0.1626716429743782</v>
+        <v>0.2701506025354661</v>
       </c>
       <c r="K15">
-        <v>1.798393555020994</v>
+        <v>5.972436494636497</v>
       </c>
       <c r="L15">
-        <v>0.2944599809437278</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3163948728891768</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.525280013625746</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>4.931657384101328</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.688221005480131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.179178584920038</v>
+        <v>2.335553499360799</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1412937350557044</v>
+        <v>0.06172460529082002</v>
       </c>
       <c r="E16">
-        <v>0.1127238636382675</v>
+        <v>1.447482667009979</v>
       </c>
       <c r="F16">
-        <v>0.6873446681104056</v>
+        <v>0.6319696363052287</v>
       </c>
       <c r="G16">
-        <v>0.4074407185964475</v>
+        <v>0.5131281413630262</v>
       </c>
       <c r="H16">
-        <v>0.3348130366210569</v>
+        <v>0.1835400966697733</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.005193191520072027</v>
       </c>
       <c r="J16">
-        <v>0.1662186064692346</v>
+        <v>0.2559224941874021</v>
       </c>
       <c r="K16">
-        <v>1.696337028382658</v>
+        <v>5.616563722787021</v>
       </c>
       <c r="L16">
-        <v>0.2758866075318593</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2969300415225788</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.512893902257559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>4.646956332571023</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.578427412397446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.134746832337669</v>
+        <v>2.200863610856004</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1393171939962983</v>
+        <v>0.05677497755966243</v>
       </c>
       <c r="E17">
-        <v>0.1139792366106533</v>
+        <v>1.218800658041886</v>
       </c>
       <c r="F17">
-        <v>0.6831876113258346</v>
+        <v>0.6247550699373363</v>
       </c>
       <c r="G17">
-        <v>0.4037253141701882</v>
+        <v>0.510128047048525</v>
       </c>
       <c r="H17">
-        <v>0.3354827783153809</v>
+        <v>0.1437780819311598</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005857666028473041</v>
       </c>
       <c r="J17">
-        <v>0.1684370988883765</v>
+        <v>0.2577653058582285</v>
       </c>
       <c r="K17">
-        <v>1.633773574335208</v>
+        <v>5.259039048783507</v>
       </c>
       <c r="L17">
-        <v>0.2645081990495868</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2850246290771565</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.506275806744185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>4.629980140766691</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.575770262125872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.109259497946994</v>
+        <v>2.077297925334392</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1381946067438165</v>
+        <v>0.05081467564672693</v>
       </c>
       <c r="E18">
-        <v>0.1147144497719541</v>
+        <v>0.8888625709902982</v>
       </c>
       <c r="F18">
-        <v>0.6809356332528864</v>
+        <v>0.6488686973663533</v>
       </c>
       <c r="G18">
-        <v>0.4016935407710633</v>
+        <v>0.5375826843355185</v>
       </c>
       <c r="H18">
-        <v>0.3359289690284726</v>
+        <v>0.0905624523269779</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.006088309694862737</v>
       </c>
       <c r="J18">
-        <v>0.1697286451950131</v>
+        <v>0.2740120125292975</v>
       </c>
       <c r="K18">
-        <v>1.597801857992465</v>
+        <v>4.844677325105891</v>
       </c>
       <c r="L18">
-        <v>0.2579687868287408</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2781891943127661</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.502819147612939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>4.831752417226056</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.667878090201071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.100641371201192</v>
+        <v>1.968542767509973</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1378169403757354</v>
+        <v>0.04486921968025825</v>
       </c>
       <c r="E19">
-        <v>0.1149656277484405</v>
+        <v>0.5701057311903028</v>
       </c>
       <c r="F19">
-        <v>0.6801966736355993</v>
+        <v>0.6962456885177488</v>
       </c>
       <c r="G19">
-        <v>0.4010233725617738</v>
+        <v>0.5879911195671923</v>
       </c>
       <c r="H19">
-        <v>0.3360903753134394</v>
+        <v>0.04692715558294225</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.006470998217516843</v>
       </c>
       <c r="J19">
-        <v>0.1701685975991909</v>
+        <v>0.3006053156421871</v>
       </c>
       <c r="K19">
-        <v>1.585624395501839</v>
+        <v>4.479320520594285</v>
       </c>
       <c r="L19">
-        <v>0.2557554789341481</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2758768576460326</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.501707912841738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>5.227745128741702</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.830363818829284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.139469483204863</v>
+        <v>1.912793013746949</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1395261169153699</v>
+        <v>0.03880878727156301</v>
       </c>
       <c r="E20">
-        <v>0.1138442355483518</v>
+        <v>0.2640355723017862</v>
       </c>
       <c r="F20">
-        <v>0.6836156596354641</v>
+        <v>0.8095187541792512</v>
       </c>
       <c r="G20">
-        <v>0.4041098585261267</v>
+        <v>0.7033262075986215</v>
       </c>
       <c r="H20">
-        <v>0.3354051396022584</v>
+        <v>0.02789832828765704</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006194993219447831</v>
       </c>
       <c r="J20">
-        <v>0.1681993271002318</v>
+        <v>0.356510729410985</v>
       </c>
       <c r="K20">
-        <v>1.640432127433911</v>
+        <v>4.159231115946483</v>
       </c>
       <c r="L20">
-        <v>0.2657189031151432</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2862906945498054</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.506943871058979</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>6.114829782320044</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>2.192005968678615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.270772597475002</v>
+        <v>2.142265293016465</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1454412914609904</v>
+        <v>0.04303453468929774</v>
       </c>
       <c r="E21">
-        <v>0.1102346079286649</v>
+        <v>0.2580239024641244</v>
       </c>
       <c r="F21">
-        <v>0.6967917040452392</v>
+        <v>0.9230892196365659</v>
       </c>
       <c r="G21">
-        <v>0.4157614105852048</v>
+        <v>0.8073024941853362</v>
       </c>
       <c r="H21">
-        <v>0.3338418448524862</v>
+        <v>0.03631329916693449</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004776201071167385</v>
       </c>
       <c r="J21">
-        <v>0.1617691291849574</v>
+        <v>0.4003929890569111</v>
       </c>
       <c r="K21">
-        <v>1.824759266303289</v>
+        <v>4.603352779832136</v>
       </c>
       <c r="L21">
-        <v>0.2992606699618534</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3214320371850548</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.528789636916088</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>6.922444231496968</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>2.504676524422052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.357278002559042</v>
+        <v>2.30160654015998</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1494407601241221</v>
+        <v>0.04608440187914908</v>
       </c>
       <c r="E22">
-        <v>0.1079954632617834</v>
+        <v>0.2627642656166458</v>
       </c>
       <c r="F22">
-        <v>0.7067255709623339</v>
+        <v>0.9952454214726743</v>
       </c>
       <c r="G22">
-        <v>0.4243878055317367</v>
+        <v>0.8728413709845029</v>
       </c>
       <c r="H22">
-        <v>0.3333955065027681</v>
+        <v>0.04197965075404764</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003696570521678488</v>
       </c>
       <c r="J22">
-        <v>0.1577072189182829</v>
+        <v>0.4279261127181542</v>
       </c>
       <c r="K22">
-        <v>1.945418296031477</v>
+        <v>4.888577541839283</v>
       </c>
       <c r="L22">
-        <v>0.321241986784699</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3445264680655953</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.546408538598143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>7.400099692383407</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.701494513752294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.311041166551973</v>
+        <v>2.219833197162984</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1472936217337022</v>
+        <v>0.04439775355861997</v>
       </c>
       <c r="E23">
-        <v>0.1091794211657247</v>
+        <v>0.2588049845012534</v>
       </c>
       <c r="F23">
-        <v>0.7012984334399093</v>
+        <v>0.9573002218115363</v>
       </c>
       <c r="G23">
-        <v>0.4196874546254179</v>
+        <v>0.8384769434477164</v>
       </c>
       <c r="H23">
-        <v>0.3335794514097188</v>
+        <v>0.03884213248008628</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.00393953873050723</v>
       </c>
       <c r="J23">
-        <v>0.1598621563051168</v>
+        <v>0.4135580234865586</v>
       </c>
       <c r="K23">
-        <v>1.880999137208875</v>
+        <v>4.707019908172782</v>
       </c>
       <c r="L23">
-        <v>0.3095039626319505</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3321879345230343</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.53668792348077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>7.126816471134021</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2.598436522261494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.137334195848837</v>
+        <v>1.904808907729659</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1394316200985841</v>
+        <v>0.03811471824346313</v>
       </c>
       <c r="E24">
-        <v>0.1139052275641674</v>
+        <v>0.2457096084577053</v>
       </c>
       <c r="F24">
-        <v>0.6834217101670461</v>
+        <v>0.8151264994198471</v>
       </c>
       <c r="G24">
-        <v>0.4039356820770195</v>
+        <v>0.7096093598034088</v>
       </c>
       <c r="H24">
-        <v>0.3354400499559915</v>
+        <v>0.02804389354298931</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.005715454224555216</v>
       </c>
       <c r="J24">
-        <v>0.1683067735859742</v>
+        <v>0.3598459018109139</v>
       </c>
       <c r="K24">
-        <v>1.637421806195448</v>
+        <v>4.073953842001316</v>
       </c>
       <c r="L24">
-        <v>0.2651715371482908</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2857182780639747</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.506640757153008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>6.125016168618856</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>2.212299611589202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9525456900377378</v>
+        <v>1.564716944076878</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1314931968237829</v>
+        <v>0.03135203892305327</v>
       </c>
       <c r="E25">
-        <v>0.1195042740878982</v>
+        <v>0.2307608100615077</v>
       </c>
       <c r="F25">
-        <v>0.6694114023585271</v>
+        <v>0.666556891204209</v>
       </c>
       <c r="G25">
-        <v>0.3909296751423312</v>
+        <v>0.5750065991346816</v>
       </c>
       <c r="H25">
-        <v>0.3397615040812738</v>
+        <v>0.01813951563569316</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.008311093000439307</v>
       </c>
       <c r="J25">
-        <v>0.1780081472772421</v>
+        <v>0.3043653531782979</v>
       </c>
       <c r="K25">
-        <v>1.375148555472776</v>
+        <v>3.403666614679508</v>
       </c>
       <c r="L25">
-        <v>0.2175414755070193</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2360517842380396</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.487491153430568</v>
+        <v>5.049745115019959</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.810226890483193</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.32154877306067</v>
+        <v>1.559261123998965</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02623642715827401</v>
+        <v>0.02260105527654233</v>
       </c>
       <c r="E2">
-        <v>0.2156738157246174</v>
+        <v>0.1485025230525672</v>
       </c>
       <c r="F2">
-        <v>0.5621483439762116</v>
+        <v>0.6128415692961511</v>
       </c>
       <c r="G2">
-        <v>0.48066735643242</v>
+        <v>0.537297705568065</v>
       </c>
       <c r="H2">
-        <v>0.01195791203045102</v>
+        <v>0.009655918695661788</v>
       </c>
       <c r="I2">
-        <v>0.009955380914250078</v>
+        <v>0.006317913231995043</v>
       </c>
       <c r="J2">
-        <v>0.2662231192175994</v>
+        <v>0.3428320550991231</v>
       </c>
       <c r="K2">
-        <v>2.8512514151695</v>
+        <v>1.285398506258005</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4352302679172553</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.5297335761372608</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.217898682599412</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.529925413200374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>3.105089152433038</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.706760660984884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.151541416251462</v>
+        <v>1.363198931263838</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02285403559657695</v>
+        <v>0.01960568675151819</v>
       </c>
       <c r="E3">
-        <v>0.2072391539121661</v>
+        <v>0.1473927166045463</v>
       </c>
       <c r="F3">
-        <v>0.4920152349470399</v>
+        <v>0.5382893555543049</v>
       </c>
       <c r="G3">
-        <v>0.417117055734991</v>
+        <v>0.4658391972853053</v>
       </c>
       <c r="H3">
-        <v>0.008441220449626641</v>
+        <v>0.00677089811025583</v>
       </c>
       <c r="I3">
-        <v>0.01171840652356027</v>
+        <v>0.007339242284710501</v>
       </c>
       <c r="J3">
-        <v>0.2407069786080456</v>
+        <v>0.315217128065953</v>
       </c>
       <c r="K3">
-        <v>2.521388739030911</v>
+        <v>1.138171959132833</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3698974899564291</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.4867752599041069</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.680367983914792</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.341456017114069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.695438119569772</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.502943416431805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.046656731614434</v>
+        <v>1.242131464381913</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02078009759256716</v>
+        <v>0.01777215603489424</v>
       </c>
       <c r="E4">
-        <v>0.2020256262674991</v>
+        <v>0.1466849134887891</v>
       </c>
       <c r="F4">
-        <v>0.4495990820006881</v>
+        <v>0.4930678831607551</v>
       </c>
       <c r="G4">
-        <v>0.3786529622302197</v>
+        <v>0.4225292468874216</v>
       </c>
       <c r="H4">
-        <v>0.006540467933733585</v>
+        <v>0.005212615384442398</v>
       </c>
       <c r="I4">
-        <v>0.01292044440036255</v>
+        <v>0.008053498695526962</v>
       </c>
       <c r="J4">
-        <v>0.2254093961592787</v>
+        <v>0.2984395217462321</v>
       </c>
       <c r="K4">
-        <v>2.322219465249276</v>
+        <v>1.05013742481016</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3316814941777082</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4607814056038464</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.35144859409975</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.22767722492398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.444945075223231</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.379424390269378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.002966284161118</v>
+        <v>1.191970751566458</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01995049852789776</v>
+        <v>0.01703615145627069</v>
       </c>
       <c r="E5">
-        <v>0.2002575541714542</v>
+        <v>0.1464262799978773</v>
       </c>
       <c r="F5">
-        <v>0.4322761699454674</v>
+        <v>0.4746236631149401</v>
       </c>
       <c r="G5">
-        <v>0.3629084867991281</v>
+        <v>0.4048565852641701</v>
       </c>
       <c r="H5">
-        <v>0.005830580482949155</v>
+        <v>0.004629139104724234</v>
       </c>
       <c r="I5">
-        <v>0.01351781627570192</v>
+        <v>0.008458978972974762</v>
       </c>
       <c r="J5">
-        <v>0.2191564475267853</v>
+        <v>0.2915609111488777</v>
       </c>
       <c r="K5">
-        <v>2.248760902739448</v>
+        <v>1.017946156742255</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3175436539783405</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.45163529759688</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.22207944790425</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.181120749973758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>2.345828483912499</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.328967913128196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9947016757503775</v>
+        <v>1.182836024031673</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01983106575070082</v>
+        <v>0.0169261244512775</v>
       </c>
       <c r="E6">
-        <v>0.2004092366936057</v>
+        <v>0.1464279191621145</v>
       </c>
       <c r="F6">
-        <v>0.429183273539202</v>
+        <v>0.4713963196857875</v>
       </c>
       <c r="G6">
-        <v>0.3600642727374179</v>
+        <v>0.4017477342603826</v>
       </c>
       <c r="H6">
-        <v>0.005723279094766304</v>
+        <v>0.004538446673249985</v>
       </c>
       <c r="I6">
-        <v>0.01372289659569148</v>
+        <v>0.008650779427528121</v>
       </c>
       <c r="J6">
-        <v>0.217995204425165</v>
+        <v>0.2903203486132782</v>
       </c>
       <c r="K6">
-        <v>2.245080723322914</v>
+        <v>1.016449492158515</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3164088169095223</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4517874392436454</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.206026865294305</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.172645547143532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>2.332715691688023</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.320015949021382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.043326204396578</v>
+        <v>1.23955697027651</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02081884137091095</v>
+        <v>0.01788688492682056</v>
       </c>
       <c r="E7">
-        <v>0.2032187157562966</v>
+        <v>0.1467268505035815</v>
       </c>
       <c r="F7">
-        <v>0.448752137899433</v>
+        <v>0.4911068217592387</v>
       </c>
       <c r="G7">
-        <v>0.3777941645585514</v>
+        <v>0.4255240386727905</v>
       </c>
       <c r="H7">
-        <v>0.006552060772076804</v>
+        <v>0.005209233829241267</v>
       </c>
       <c r="I7">
-        <v>0.01319720490857801</v>
+        <v>0.008377431304658067</v>
       </c>
       <c r="J7">
-        <v>0.224976393811275</v>
+        <v>0.2920204579713612</v>
       </c>
       <c r="K7">
-        <v>2.344421086612513</v>
+        <v>1.060513877057872</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.33489971685065</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4653268260095231</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.364522232892156</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.224949743240586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.45155928378081</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.372843275511656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.259383964796797</v>
+        <v>1.489835071068228</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0251355297742677</v>
+        <v>0.02191919544664245</v>
       </c>
       <c r="E8">
-        <v>0.2143926862696155</v>
+        <v>0.1480556915379108</v>
       </c>
       <c r="F8">
-        <v>0.5370172758871163</v>
+        <v>0.5822287719172721</v>
       </c>
       <c r="G8">
-        <v>0.4577803096862851</v>
+        <v>0.5244215192860651</v>
       </c>
       <c r="H8">
-        <v>0.01072487105738459</v>
+        <v>0.008609625854986161</v>
       </c>
       <c r="I8">
-        <v>0.0108612715515779</v>
+        <v>0.007039019411059222</v>
       </c>
       <c r="J8">
-        <v>0.2568877011489832</v>
+        <v>0.3129021915996049</v>
       </c>
       <c r="K8">
-        <v>2.767845701215393</v>
+        <v>1.249465339782191</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4173719967179181</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5212303835767642</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.052070150316013</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.461752444685374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.97186082715227</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.619660766733006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.684324408493325</v>
+        <v>1.978294838492957</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03353941488983736</v>
+        <v>0.02948440592820845</v>
       </c>
       <c r="E9">
-        <v>0.2336823342570966</v>
+        <v>0.1504279909944835</v>
       </c>
       <c r="F9">
-        <v>0.7171177827348743</v>
+        <v>0.7713695420652726</v>
       </c>
       <c r="G9">
-        <v>0.6209736065152924</v>
+        <v>0.710947385632295</v>
       </c>
       <c r="H9">
-        <v>0.02119689529205077</v>
+        <v>0.01718636904347742</v>
       </c>
       <c r="I9">
-        <v>0.006910714496613402</v>
+        <v>0.004666769551828764</v>
       </c>
       <c r="J9">
-        <v>0.3233683502024576</v>
+        <v>0.3774999631192344</v>
       </c>
       <c r="K9">
-        <v>3.584876533529439</v>
+        <v>1.618949048985158</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5875085874150585</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.6257493919940771</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.384192993387074</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.947653743851873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>3.988976553575668</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2.137067433159132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.005125964742604</v>
+        <v>2.349481812031456</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04044078325181744</v>
+        <v>0.0362673478863158</v>
       </c>
       <c r="E10">
-        <v>0.2682138125245217</v>
+        <v>0.1585659342548489</v>
       </c>
       <c r="F10">
-        <v>0.8458752135818202</v>
+        <v>0.8988040639590764</v>
       </c>
       <c r="G10">
-        <v>0.7362310590147274</v>
+        <v>0.8662140233377897</v>
       </c>
       <c r="H10">
-        <v>0.03032705160106985</v>
+        <v>0.02452253366243262</v>
       </c>
       <c r="I10">
-        <v>0.004901579005458068</v>
+        <v>0.003618479344633663</v>
       </c>
       <c r="J10">
-        <v>0.37022635002252</v>
+        <v>0.3874307894750899</v>
       </c>
       <c r="K10">
-        <v>4.260489790659733</v>
+        <v>1.929383531891091</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.7315079173948931</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.7151765912093708</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.315046673270615</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.290605413040993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>4.677259869963933</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>2.475618260667687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.252408444164132</v>
+        <v>2.648991112197621</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04993511804449469</v>
+        <v>0.04613485833474584</v>
       </c>
       <c r="E11">
-        <v>0.5319816066057257</v>
+        <v>0.2826361358550926</v>
       </c>
       <c r="F11">
-        <v>0.8351464533714505</v>
+        <v>0.8756649332692348</v>
       </c>
       <c r="G11">
-        <v>0.7147425959291667</v>
+        <v>0.8996479795795409</v>
       </c>
       <c r="H11">
-        <v>0.04883770746504723</v>
+        <v>0.0421522570608559</v>
       </c>
       <c r="I11">
-        <v>0.004509490203911781</v>
+        <v>0.003760242717669726</v>
       </c>
       <c r="J11">
-        <v>0.3541958947118644</v>
+        <v>0.3045959479771341</v>
       </c>
       <c r="K11">
-        <v>5.004572035575819</v>
+        <v>2.264467850484891</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.8686457506632905</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.8297952663798327</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.205773415420566</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.211734262828458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>4.449928622268658</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>2.352804124065216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.403766155290668</v>
+        <v>2.833315680852593</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05692782982102784</v>
+        <v>0.05317562174149515</v>
       </c>
       <c r="E12">
-        <v>0.8387646311938397</v>
+        <v>0.4659360574839084</v>
       </c>
       <c r="F12">
-        <v>0.7999042673983183</v>
+        <v>0.8347798338900674</v>
       </c>
       <c r="G12">
-        <v>0.6742006998798615</v>
+        <v>0.8810939266274147</v>
       </c>
       <c r="H12">
-        <v>0.0864930056384523</v>
+        <v>0.07944297200015882</v>
       </c>
       <c r="I12">
-        <v>0.004106389269510125</v>
+        <v>0.003537146884531772</v>
       </c>
       <c r="J12">
-        <v>0.3314353061933701</v>
+        <v>0.2571077200632175</v>
       </c>
       <c r="K12">
-        <v>5.474918921685372</v>
+        <v>2.472188010497035</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.9504516488840551</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.9039062102697812</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.893111604033322</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2.078248610840433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>4.109857237042377</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>2.198970875278121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.484197002207509</v>
+        <v>2.933667997953535</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06240044639874043</v>
+        <v>0.05798337719872393</v>
       </c>
       <c r="E13">
-        <v>1.194224267481175</v>
+        <v>0.7034708981320819</v>
       </c>
       <c r="F13">
-        <v>0.7426578000586659</v>
+        <v>0.7797797724404063</v>
       </c>
       <c r="G13">
-        <v>0.6155856879285153</v>
+        <v>0.8113353403868615</v>
       </c>
       <c r="H13">
-        <v>0.1403862264216116</v>
+        <v>0.1333547835131412</v>
       </c>
       <c r="I13">
-        <v>0.003995150041286699</v>
+        <v>0.00346188196678554</v>
       </c>
       <c r="J13">
-        <v>0.3015784680881808</v>
+        <v>0.2394007224051222</v>
       </c>
       <c r="K13">
-        <v>5.793839167708313</v>
+        <v>2.606996015572378</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.9980445946356014</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.9570968703782796</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.432215241940128</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.891497853632472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>3.68337597317138</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>2.018282736772619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.507397114776438</v>
+        <v>2.965107083516102</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06558028101007096</v>
+        <v>0.06032409433182551</v>
       </c>
       <c r="E14">
-        <v>1.475315806457857</v>
+        <v>0.903432061769621</v>
       </c>
       <c r="F14">
-        <v>0.6928933438667997</v>
+        <v>0.7347061746909986</v>
       </c>
       <c r="G14">
-        <v>0.5667690081134111</v>
+        <v>0.7414258792884283</v>
       </c>
       <c r="H14">
-        <v>0.1881765340287558</v>
+        <v>0.1813061427226756</v>
       </c>
       <c r="I14">
-        <v>0.004120953037076269</v>
+        <v>0.00357087562253966</v>
       </c>
       <c r="J14">
-        <v>0.2776058740151086</v>
+        <v>0.2383335919071214</v>
       </c>
       <c r="K14">
-        <v>5.957349602698912</v>
+        <v>2.672157860012518</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.016990931143908</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.9865867332998874</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.050100462505156</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.737790442190089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>3.351826744369859</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.878910173518022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.495638164752336</v>
+        <v>2.95265970263938</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06597553404669299</v>
+        <v>0.06036247385989668</v>
       </c>
       <c r="E15">
-        <v>1.542913965113286</v>
+        <v>0.9536228576123875</v>
       </c>
       <c r="F15">
-        <v>0.6759259304355112</v>
+        <v>0.7202362878239796</v>
       </c>
       <c r="G15">
-        <v>0.5507629514476662</v>
+        <v>0.714780222684297</v>
       </c>
       <c r="H15">
-        <v>0.1999974958199005</v>
+        <v>0.1932542912897901</v>
       </c>
       <c r="I15">
-        <v>0.00433312367891503</v>
+        <v>0.003774043418896866</v>
       </c>
       <c r="J15">
-        <v>0.2701506025354661</v>
+        <v>0.2427820926259443</v>
       </c>
       <c r="K15">
-        <v>5.972436494636497</v>
+        <v>2.676206148348868</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.015551758618727</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9908576537759473</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.931657384101328</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.688221005480131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>3.255280372252599</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.837246939522174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.335553499360799</v>
+        <v>2.764073499774554</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06172460529082002</v>
+        <v>0.05508755659733566</v>
       </c>
       <c r="E16">
-        <v>1.447482667009979</v>
+        <v>0.8976092892465743</v>
       </c>
       <c r="F16">
-        <v>0.6319696363052287</v>
+        <v>0.6870416032916182</v>
       </c>
       <c r="G16">
-        <v>0.5131281413630262</v>
+        <v>0.6308410064953307</v>
       </c>
       <c r="H16">
-        <v>0.1835400966697733</v>
+        <v>0.1777806074409085</v>
       </c>
       <c r="I16">
-        <v>0.005193191520072027</v>
+        <v>0.004342154910993656</v>
       </c>
       <c r="J16">
-        <v>0.2559224941874021</v>
+        <v>0.2836635531607072</v>
       </c>
       <c r="K16">
-        <v>5.616563722787021</v>
+        <v>2.509475984082471</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.9388739225192921</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9417636259837394</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.646956332571023</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.578427412397446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>3.074396432291735</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.763089004335654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.200863610856004</v>
+        <v>2.603680507812498</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05677497755966243</v>
+        <v>0.05007713582745055</v>
       </c>
       <c r="E17">
-        <v>1.218800658041886</v>
+        <v>0.7418550755621993</v>
       </c>
       <c r="F17">
-        <v>0.6247550699373363</v>
+        <v>0.6839869008427968</v>
       </c>
       <c r="G17">
-        <v>0.510128047048525</v>
+        <v>0.6082779000339684</v>
       </c>
       <c r="H17">
-        <v>0.1437780819311598</v>
+        <v>0.1386342833111343</v>
       </c>
       <c r="I17">
-        <v>0.005857666028473041</v>
+        <v>0.004770183362948544</v>
       </c>
       <c r="J17">
-        <v>0.2577653058582285</v>
+        <v>0.3104293831665075</v>
       </c>
       <c r="K17">
-        <v>5.259039048783507</v>
+        <v>2.349318955546067</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.8714853001674072</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8888262998545429</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.629980140766691</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.575770262125872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>3.107892933858182</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.775247127351321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.077297925334392</v>
+        <v>2.453165320292271</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05081467564672693</v>
+        <v>0.04457406949413212</v>
       </c>
       <c r="E18">
-        <v>0.8888625709902982</v>
+        <v>0.518966817228609</v>
       </c>
       <c r="F18">
-        <v>0.6488686973663533</v>
+        <v>0.7096415383100094</v>
       </c>
       <c r="G18">
-        <v>0.5375826843355185</v>
+        <v>0.6276723092459093</v>
       </c>
       <c r="H18">
-        <v>0.0905624523269779</v>
+        <v>0.08579484936581139</v>
       </c>
       <c r="I18">
-        <v>0.006088309694862737</v>
+        <v>0.004747325507352684</v>
       </c>
       <c r="J18">
-        <v>0.2740120125292975</v>
+        <v>0.337783278151818</v>
       </c>
       <c r="K18">
-        <v>4.844677325105891</v>
+        <v>2.168106373741949</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.8012449520885099</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8232544420752816</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.831752417226056</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.667878090201071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>3.330478780615223</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.874417015694974</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.968542767509973</v>
+        <v>2.319966753218978</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04486921968025825</v>
+        <v>0.03926838741475791</v>
       </c>
       <c r="E19">
-        <v>0.5701057311903028</v>
+        <v>0.3163807018230784</v>
       </c>
       <c r="F19">
-        <v>0.6962456885177488</v>
+        <v>0.7574713577737953</v>
       </c>
       <c r="G19">
-        <v>0.5879911195671923</v>
+        <v>0.6766717952270227</v>
       </c>
       <c r="H19">
-        <v>0.04692715558294225</v>
+        <v>0.04222564535999851</v>
       </c>
       <c r="I19">
-        <v>0.006470998217516843</v>
+        <v>0.00502533310185882</v>
       </c>
       <c r="J19">
-        <v>0.3006053156421871</v>
+        <v>0.3678237415934404</v>
       </c>
       <c r="K19">
-        <v>4.479320520594285</v>
+        <v>2.012081035814163</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.7438928471910913</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.7638106082301306</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.227745128741702</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.830363818829284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>3.716700111961373</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>2.040688918920921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.912793013746949</v>
+        <v>2.244941863198562</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03880878727156301</v>
+        <v>0.03426107948343571</v>
       </c>
       <c r="E20">
-        <v>0.2640355723017862</v>
+        <v>0.1576836462745259</v>
       </c>
       <c r="F20">
-        <v>0.8095187541792512</v>
+        <v>0.8678881959727391</v>
       </c>
       <c r="G20">
-        <v>0.7033262075986215</v>
+        <v>0.8091576202525061</v>
       </c>
       <c r="H20">
-        <v>0.02789832828765704</v>
+        <v>0.02255633359028941</v>
       </c>
       <c r="I20">
-        <v>0.006194993219447831</v>
+        <v>0.004859181209344143</v>
       </c>
       <c r="J20">
-        <v>0.356510729410985</v>
+        <v>0.4048682904298033</v>
       </c>
       <c r="K20">
-        <v>4.159231115946483</v>
+        <v>1.881993584421124</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.7055150866813165</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.7052250572068317</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.114829782320044</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.192005968678615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>4.527204944387393</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>2.39557350566028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.142265293016465</v>
+        <v>2.513315057873172</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04303453468929774</v>
+        <v>0.04041060657779383</v>
       </c>
       <c r="E21">
-        <v>0.2580239024641244</v>
+        <v>0.1515341154525149</v>
       </c>
       <c r="F21">
-        <v>0.9230892196365659</v>
+        <v>0.9554398879056549</v>
       </c>
       <c r="G21">
-        <v>0.8073024941853362</v>
+        <v>1.021233301227525</v>
       </c>
       <c r="H21">
-        <v>0.03631329916693449</v>
+        <v>0.02920491148955662</v>
       </c>
       <c r="I21">
-        <v>0.004776201071167385</v>
+        <v>0.004035592459809223</v>
       </c>
       <c r="J21">
-        <v>0.4003929890569111</v>
+        <v>0.3155757219607978</v>
       </c>
       <c r="K21">
-        <v>4.603352779832136</v>
+        <v>2.096095583125731</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.8092250539303052</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.7633978411689952</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.922444231496968</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.504676524422052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>5.125891065958768</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>2.619593781667987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.30160654015998</v>
+        <v>2.699084940512705</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04608440187914908</v>
+        <v>0.04493449179405218</v>
       </c>
       <c r="E22">
-        <v>0.2627642656166458</v>
+        <v>0.1508294229445646</v>
       </c>
       <c r="F22">
-        <v>0.9952454214726743</v>
+        <v>1.007950128781005</v>
       </c>
       <c r="G22">
-        <v>0.8728413709845029</v>
+        <v>1.167815555166584</v>
       </c>
       <c r="H22">
-        <v>0.04197965075404764</v>
+        <v>0.03363671085922038</v>
       </c>
       <c r="I22">
-        <v>0.003696570521678488</v>
+        <v>0.003213418765819931</v>
       </c>
       <c r="J22">
-        <v>0.4279261127181542</v>
+        <v>0.2575837117394144</v>
       </c>
       <c r="K22">
-        <v>4.888577541839283</v>
+        <v>2.233839226445468</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.8770259061283099</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.8002189162906745</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.400099692383407</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.701494513752294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>5.471908257817518</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>2.749526116772387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.219833197162984</v>
+        <v>2.60176025508855</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04439775355861997</v>
+        <v>0.04220006659252107</v>
       </c>
       <c r="E23">
-        <v>0.2588049845012534</v>
+        <v>0.1511623456234439</v>
       </c>
       <c r="F23">
-        <v>0.9573002218115363</v>
+        <v>0.9837922059385988</v>
       </c>
       <c r="G23">
-        <v>0.8384769434477164</v>
+        <v>1.078428463699723</v>
       </c>
       <c r="H23">
-        <v>0.03884213248008628</v>
+        <v>0.03123114985749997</v>
       </c>
       <c r="I23">
-        <v>0.00393953873050723</v>
+        <v>0.003255581153728926</v>
       </c>
       <c r="J23">
-        <v>0.4135580234865586</v>
+        <v>0.3006179884561817</v>
       </c>
       <c r="K23">
-        <v>4.707019908172782</v>
+        <v>2.145440153337546</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.8353291913975198</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.7749034654179923</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.126816471134021</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.598436522261494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>5.279337511488734</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>2.693439908957487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.904808907729659</v>
+        <v>2.23305460086749</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03811471824346313</v>
+        <v>0.03364561422182533</v>
       </c>
       <c r="E24">
-        <v>0.2457096084577053</v>
+        <v>0.1518217630205232</v>
       </c>
       <c r="F24">
-        <v>0.8151264994198471</v>
+        <v>0.8733651226582282</v>
       </c>
       <c r="G24">
-        <v>0.7096093598034088</v>
+        <v>0.814349577580046</v>
       </c>
       <c r="H24">
-        <v>0.02804389354298931</v>
+        <v>0.02274930131605235</v>
       </c>
       <c r="I24">
-        <v>0.005715454224555216</v>
+        <v>0.004250466885142856</v>
       </c>
       <c r="J24">
-        <v>0.3598459018109139</v>
+        <v>0.4091923699727715</v>
       </c>
       <c r="K24">
-        <v>4.073953842001316</v>
+        <v>1.843402660427003</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.6912893397853992</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.6905704140944522</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.125016168618856</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.212299611589202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>4.550277897824515</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>2.415632389160066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.564716944076878</v>
+        <v>1.842340769162803</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03135203892305327</v>
+        <v>0.02735728620520206</v>
       </c>
       <c r="E25">
-        <v>0.2307608100615077</v>
+        <v>0.1502458104290287</v>
       </c>
       <c r="F25">
-        <v>0.666556891204209</v>
+        <v>0.720525616595495</v>
       </c>
       <c r="G25">
-        <v>0.5750065991346816</v>
+        <v>0.6534411901493087</v>
       </c>
       <c r="H25">
-        <v>0.01813951563569316</v>
+        <v>0.0146737649000504</v>
       </c>
       <c r="I25">
-        <v>0.008311093000439307</v>
+        <v>0.005773580892104668</v>
       </c>
       <c r="J25">
-        <v>0.3043653531782979</v>
+        <v>0.3679208042600948</v>
       </c>
       <c r="K25">
-        <v>3.403666614679508</v>
+        <v>1.536386047412265</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5466009540192758</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.6049201738817516</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.049745115019959</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.810226890483193</v>
+        <v>3.731304049730312</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.998515344215093</v>
       </c>
     </row>
   </sheetData>
